--- a/Resources/Data/master_list.xlsx
+++ b/Resources/Data/master_list.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51aaa36d9ab95471/Desktop/Analysis Projects/FinalProject_BusinessFormation/Resources/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51aaa36d9ab95471/Desktop/Analysis Projects/temp/CityStats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3AF74E42-C002-472F-86DF-F89073EADAE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:40009_{3AF74E42-C002-472F-86DF-F89073EADAE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{72C838D0-83E6-415E-BE44-CC71605EA52E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master_list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">master_list!#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3731" uniqueCount="2512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3732" uniqueCount="2513">
   <si>
     <t>CBSA</t>
   </si>
@@ -7556,12 +7570,15 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>08226</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -8396,10 +8413,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8407,6 +8426,7 @@
     <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -8446,7 +8466,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8487,7 +8507,7 @@
       <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8528,7 +8548,7 @@
       <c r="L3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8569,7 +8589,7 @@
       <c r="L4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8610,7 +8630,7 @@
       <c r="L5" s="1">
         <v>41043</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8651,7 +8671,7 @@
       <c r="L6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8692,7 +8712,7 @@
       <c r="L7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -8733,7 +8753,7 @@
       <c r="L8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -8774,7 +8794,7 @@
       <c r="L9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8815,7 +8835,7 @@
       <c r="L10" s="1">
         <v>42013</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -8856,7 +8876,7 @@
       <c r="L11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -8897,7 +8917,7 @@
       <c r="L12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -8938,7 +8958,7 @@
       <c r="L13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -8979,7 +8999,7 @@
       <c r="L14" s="1">
         <v>26161</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -9020,7 +9040,7 @@
       <c r="L15" s="1" t="s">
         <v>2090</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="1" t="s">
         <v>112</v>
       </c>
     </row>
@@ -9061,7 +9081,7 @@
       <c r="L16" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9102,7 +9122,7 @@
       <c r="L17" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -9143,7 +9163,7 @@
       <c r="L18" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -9184,7 +9204,7 @@
       <c r="L19" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="1" t="s">
         <v>140</v>
       </c>
     </row>
@@ -9225,7 +9245,7 @@
       <c r="L20" s="1">
         <v>34001</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -9266,7 +9286,7 @@
       <c r="L21" s="1" t="s">
         <v>2096</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="1" t="s">
         <v>152</v>
       </c>
     </row>
@@ -9307,7 +9327,7 @@
       <c r="L22" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -9348,7 +9368,7 @@
       <c r="L23" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="1" t="s">
         <v>164</v>
       </c>
     </row>
@@ -9389,7 +9409,7 @@
       <c r="L24" s="1" t="s">
         <v>2099</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="1" t="s">
         <v>171</v>
       </c>
     </row>
@@ -9430,7 +9450,7 @@
       <c r="L25" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="1" t="s">
         <v>178</v>
       </c>
     </row>
@@ -9471,7 +9491,7 @@
       <c r="L26" s="1">
         <v>23019</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -9512,7 +9532,7 @@
       <c r="L27" s="1">
         <v>25001</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="1" t="s">
         <v>191</v>
       </c>
     </row>
@@ -9553,7 +9573,7 @@
       <c r="L28" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="1" t="s">
         <v>197</v>
       </c>
     </row>
@@ -9594,7 +9614,7 @@
       <c r="L29" s="1">
         <v>26025</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="1" t="s">
         <v>200</v>
       </c>
     </row>
@@ -9635,7 +9655,7 @@
       <c r="L30" s="1">
         <v>26017</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="1" t="s">
         <v>205</v>
       </c>
     </row>
@@ -9676,7 +9696,7 @@
       <c r="L31" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="1" t="s">
         <v>211</v>
       </c>
     </row>
@@ -9717,7 +9737,7 @@
       <c r="L32" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="1">
         <v>25801</v>
       </c>
     </row>
@@ -9758,7 +9778,7 @@
       <c r="L33" s="1">
         <v>53073</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -9799,7 +9819,7 @@
       <c r="L34" s="1">
         <v>41017</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -9840,7 +9860,7 @@
       <c r="L35" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="1" t="s">
         <v>238</v>
       </c>
     </row>
@@ -9881,7 +9901,7 @@
       <c r="L36" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="1" t="s">
         <v>244</v>
       </c>
     </row>
@@ -9922,7 +9942,7 @@
       <c r="L37" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="1" t="s">
         <v>249</v>
       </c>
     </row>
@@ -9963,7 +9983,7 @@
       <c r="L38" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="1" t="s">
         <v>257</v>
       </c>
     </row>
@@ -10004,7 +10024,7 @@
       <c r="L39" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="1" t="s">
         <v>265</v>
       </c>
     </row>
@@ -10045,7 +10065,7 @@
       <c r="L40" s="1">
         <v>17113</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="1" t="s">
         <v>272</v>
       </c>
     </row>
@@ -10086,7 +10106,7 @@
       <c r="L41" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="1" t="s">
         <v>279</v>
       </c>
     </row>
@@ -10127,7 +10147,7 @@
       <c r="L42" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" s="1" t="s">
         <v>285</v>
       </c>
     </row>
@@ -10168,7 +10188,7 @@
       <c r="L43" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" s="1" t="s">
         <v>293</v>
       </c>
     </row>
@@ -10209,7 +10229,7 @@
       <c r="L44" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" s="1" t="s">
         <v>299</v>
       </c>
     </row>
@@ -10250,7 +10270,7 @@
       <c r="L45" s="1" t="s">
         <v>2120</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" s="1" t="s">
         <v>305</v>
       </c>
     </row>
@@ -10291,7 +10311,7 @@
       <c r="L46" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46" s="1" t="s">
         <v>313</v>
       </c>
     </row>
@@ -10332,7 +10352,7 @@
       <c r="L47" s="1">
         <v>53035</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" s="1" t="s">
         <v>318</v>
       </c>
     </row>
@@ -10373,7 +10393,7 @@
       <c r="L48" s="1" t="s">
         <v>2123</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48" s="1" t="s">
         <v>325</v>
       </c>
     </row>
@@ -10414,7 +10434,7 @@
       <c r="L49" s="1">
         <v>48061</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" s="1" t="s">
         <v>330</v>
       </c>
     </row>
@@ -10455,7 +10475,7 @@
       <c r="L50" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50" s="1" t="s">
         <v>336</v>
       </c>
     </row>
@@ -10496,7 +10516,7 @@
       <c r="L51" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51" s="1" t="s">
         <v>342</v>
       </c>
     </row>
@@ -10537,7 +10557,7 @@
       <c r="L52" s="1">
         <v>37001</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52" s="1" t="s">
         <v>347</v>
       </c>
     </row>
@@ -10578,7 +10598,7 @@
       <c r="L53" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" s="1" t="s">
         <v>354</v>
       </c>
     </row>
@@ -10619,7 +10639,7 @@
       <c r="L54" s="1">
         <v>24037</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54" s="1" t="s">
         <v>358</v>
       </c>
     </row>
@@ -10660,7 +10680,7 @@
       <c r="L55" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55" s="1" t="s">
         <v>364</v>
       </c>
     </row>
@@ -10701,7 +10721,7 @@
       <c r="L56" s="1">
         <v>12071</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56" s="1" t="s">
         <v>369</v>
       </c>
     </row>
@@ -10742,7 +10762,7 @@
       <c r="L57" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57" s="1" t="s">
         <v>376</v>
       </c>
     </row>
@@ -10783,7 +10803,7 @@
       <c r="L58" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58" s="1" t="s">
         <v>382</v>
       </c>
     </row>
@@ -10824,7 +10844,7 @@
       <c r="L59" s="1">
         <v>32510</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M59" s="1" t="s">
         <v>387</v>
       </c>
     </row>
@@ -10865,7 +10885,7 @@
       <c r="L60" s="1">
         <v>56025</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60" s="1" t="s">
         <v>394</v>
       </c>
     </row>
@@ -10906,7 +10926,7 @@
       <c r="L61" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61" s="1" t="s">
         <v>399</v>
       </c>
     </row>
@@ -10947,7 +10967,7 @@
       <c r="L62" s="1">
         <v>42055</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62" s="1" t="s">
         <v>404</v>
       </c>
     </row>
@@ -10988,7 +11008,7 @@
       <c r="L63" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63" s="1" t="s">
         <v>409</v>
       </c>
     </row>
@@ -11029,7 +11049,7 @@
       <c r="L64" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64" s="1" t="s">
         <v>415</v>
       </c>
     </row>
@@ -11070,7 +11090,7 @@
       <c r="L65" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65" s="1" t="s">
         <v>421</v>
       </c>
     </row>
@@ -11111,7 +11131,7 @@
       <c r="L66" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66" s="1" t="s">
         <v>427</v>
       </c>
     </row>
@@ -11152,7 +11172,7 @@
       <c r="L67" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67" s="1" t="s">
         <v>432</v>
       </c>
     </row>
@@ -11193,7 +11213,7 @@
       <c r="L68" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68" s="1" t="s">
         <v>440</v>
       </c>
     </row>
@@ -11234,7 +11254,7 @@
       <c r="L69" s="1">
         <v>56021</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69" s="1" t="s">
         <v>445</v>
       </c>
     </row>
@@ -11275,7 +11295,7 @@
       <c r="L70" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M70" s="1" t="s">
         <v>451</v>
       </c>
     </row>
@@ -11316,7 +11336,7 @@
       <c r="L71" s="1" t="s">
         <v>2146</v>
       </c>
-      <c r="M71" t="s">
+      <c r="M71" s="1" t="s">
         <v>456</v>
       </c>
     </row>
@@ -11357,7 +11377,7 @@
       <c r="L72" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72" s="1" t="s">
         <v>461</v>
       </c>
     </row>
@@ -11398,7 +11418,7 @@
       <c r="L73" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73" s="1" t="s">
         <v>466</v>
       </c>
     </row>
@@ -11439,7 +11459,7 @@
       <c r="L74" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M74" s="1" t="s">
         <v>472</v>
       </c>
     </row>
@@ -11480,7 +11500,7 @@
       <c r="L75" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M75" s="1" t="s">
         <v>477</v>
       </c>
     </row>
@@ -11521,7 +11541,7 @@
       <c r="L76" s="1">
         <v>16055</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M76" s="1" t="s">
         <v>482</v>
       </c>
     </row>
@@ -11562,7 +11582,7 @@
       <c r="L77" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M77" s="1" t="s">
         <v>488</v>
       </c>
     </row>
@@ -11603,7 +11623,7 @@
       <c r="L78" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M78" s="1" t="s">
         <v>494</v>
       </c>
     </row>
@@ -11644,7 +11664,7 @@
       <c r="L79" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M79" s="1" t="s">
         <v>499</v>
       </c>
     </row>
@@ -11685,7 +11705,7 @@
       <c r="L80" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M80" s="1" t="s">
         <v>504</v>
       </c>
     </row>
@@ -11726,7 +11746,7 @@
       <c r="L81" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81" s="1" t="s">
         <v>510</v>
       </c>
     </row>
@@ -11767,7 +11787,7 @@
       <c r="L82" s="1">
         <v>18005</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M82" s="1" t="s">
         <v>514</v>
       </c>
     </row>
@@ -11808,7 +11828,7 @@
       <c r="L83" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M83" s="1" t="s">
         <v>518</v>
       </c>
     </row>
@@ -11849,7 +11869,7 @@
       <c r="L84" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M84" s="1" t="s">
         <v>524</v>
       </c>
     </row>
@@ -11890,7 +11910,7 @@
       <c r="L85" s="1">
         <v>41003</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M85" s="1" t="s">
         <v>529</v>
       </c>
     </row>
@@ -11931,7 +11951,7 @@
       <c r="L86" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M86" s="1" t="s">
         <v>535</v>
       </c>
     </row>
@@ -11972,7 +11992,7 @@
       <c r="L87" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M87" s="1" t="s">
         <v>541</v>
       </c>
     </row>
@@ -12013,7 +12033,7 @@
       <c r="L88" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M88" s="1" t="s">
         <v>546</v>
       </c>
     </row>
@@ -12054,7 +12074,7 @@
       <c r="L89" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="M89" t="s">
+      <c r="M89" s="1" t="s">
         <v>552</v>
       </c>
     </row>
@@ -12095,7 +12115,7 @@
       <c r="L90" s="1">
         <v>17183</v>
       </c>
-      <c r="M90" t="s">
+      <c r="M90" s="1" t="s">
         <v>557</v>
       </c>
     </row>
@@ -12136,7 +12156,7 @@
       <c r="L91" s="1" t="s">
         <v>2166</v>
       </c>
-      <c r="M91" t="s">
+      <c r="M91" s="1" t="s">
         <v>562</v>
       </c>
     </row>
@@ -12177,7 +12197,7 @@
       <c r="L92" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="M92" t="s">
+      <c r="M92" s="1" t="s">
         <v>568</v>
       </c>
     </row>
@@ -12218,7 +12238,7 @@
       <c r="L93" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="M93" t="s">
+      <c r="M93" s="1" t="s">
         <v>573</v>
       </c>
     </row>
@@ -12259,7 +12279,7 @@
       <c r="L94" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M94" s="1" t="s">
         <v>579</v>
       </c>
     </row>
@@ -12300,7 +12320,7 @@
       <c r="L95" s="1">
         <v>17115</v>
       </c>
-      <c r="M95" t="s">
+      <c r="M95" s="1" t="s">
         <v>583</v>
       </c>
     </row>
@@ -12341,7 +12361,7 @@
       <c r="L96" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="M96" t="s">
+      <c r="M96" s="1" t="s">
         <v>589</v>
       </c>
     </row>
@@ -12382,7 +12402,7 @@
       <c r="L97" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="M97" t="s">
+      <c r="M97" s="1" t="s">
         <v>594</v>
       </c>
     </row>
@@ -12423,7 +12443,7 @@
       <c r="L98" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="M98" t="s">
+      <c r="M98" s="1" t="s">
         <v>600</v>
       </c>
     </row>
@@ -12464,7 +12484,7 @@
       <c r="L99" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="M99" t="s">
+      <c r="M99" s="1" t="s">
         <v>606</v>
       </c>
     </row>
@@ -12505,7 +12525,7 @@
       <c r="L100" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="M100" t="s">
+      <c r="M100" s="1" t="s">
         <v>612</v>
       </c>
     </row>
@@ -12546,7 +12566,7 @@
       <c r="L101" s="1">
         <v>10001</v>
       </c>
-      <c r="M101" t="s">
+      <c r="M101" s="1" t="s">
         <v>619</v>
       </c>
     </row>
@@ -12587,7 +12607,7 @@
       <c r="L102" s="1">
         <v>19061</v>
       </c>
-      <c r="M102" t="s">
+      <c r="M102" s="1" t="s">
         <v>623</v>
       </c>
     </row>
@@ -12628,7 +12648,7 @@
       <c r="L103" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="M103" t="s">
+      <c r="M103" s="1" t="s">
         <v>631</v>
       </c>
     </row>
@@ -12669,7 +12689,7 @@
       <c r="L104" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="M104" t="s">
+      <c r="M104" s="1" t="s">
         <v>636</v>
       </c>
     </row>
@@ -12710,7 +12730,7 @@
       <c r="L105" s="1">
         <v>42089</v>
       </c>
-      <c r="M105">
+      <c r="M105" s="1">
         <v>18301</v>
       </c>
     </row>
@@ -12751,7 +12771,7 @@
       <c r="L106" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="M106" t="s">
+      <c r="M106" s="1" t="s">
         <v>644</v>
       </c>
     </row>
@@ -12792,7 +12812,7 @@
       <c r="L107" s="1" t="s">
         <v>2182</v>
       </c>
-      <c r="M107" t="s">
+      <c r="M107" s="1" t="s">
         <v>649</v>
       </c>
     </row>
@@ -12833,7 +12853,7 @@
       <c r="L108" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="M108" t="s">
+      <c r="M108" s="1" t="s">
         <v>655</v>
       </c>
     </row>
@@ -12874,7 +12894,7 @@
       <c r="L109" s="1">
         <v>18039</v>
       </c>
-      <c r="M109" t="s">
+      <c r="M109" s="1" t="s">
         <v>659</v>
       </c>
     </row>
@@ -12915,7 +12935,7 @@
       <c r="L110" s="1">
         <v>36015</v>
       </c>
-      <c r="M110" t="s">
+      <c r="M110" s="1" t="s">
         <v>664</v>
       </c>
     </row>
@@ -12956,7 +12976,7 @@
       <c r="L111" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="M111" t="s">
+      <c r="M111" s="1" t="s">
         <v>668</v>
       </c>
     </row>
@@ -12997,7 +13017,7 @@
       <c r="L112" s="1">
         <v>40047</v>
       </c>
-      <c r="M112" t="s">
+      <c r="M112" s="1" t="s">
         <v>675</v>
       </c>
     </row>
@@ -13038,7 +13058,7 @@
       <c r="L113" s="1">
         <v>42049</v>
       </c>
-      <c r="M113" t="s">
+      <c r="M113" s="1" t="s">
         <v>678</v>
       </c>
     </row>
@@ -13079,7 +13099,7 @@
       <c r="L114" s="1">
         <v>41039</v>
       </c>
-      <c r="M114" t="s">
+      <c r="M114" s="1" t="s">
         <v>683</v>
       </c>
     </row>
@@ -13120,7 +13140,7 @@
       <c r="L115" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="M115" t="s">
+      <c r="M115" s="1" t="s">
         <v>689</v>
       </c>
     </row>
@@ -13161,7 +13181,7 @@
       <c r="L116" s="1" t="s">
         <v>2191</v>
       </c>
-      <c r="M116" t="s">
+      <c r="M116" s="1" t="s">
         <v>694</v>
       </c>
     </row>
@@ -13202,7 +13222,7 @@
       <c r="L117" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="M117" t="s">
+      <c r="M117" s="1" t="s">
         <v>700</v>
       </c>
     </row>
@@ -13243,7 +13263,7 @@
       <c r="L118" s="1">
         <v>35045</v>
       </c>
-      <c r="M118" t="s">
+      <c r="M118" s="1" t="s">
         <v>705</v>
       </c>
     </row>
@@ -13284,7 +13304,7 @@
       <c r="L119" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="M119" t="s">
+      <c r="M119" s="1" t="s">
         <v>710</v>
       </c>
     </row>
@@ -13325,7 +13345,7 @@
       <c r="L120" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="M120" t="s">
+      <c r="M120" s="1" t="s">
         <v>716</v>
       </c>
     </row>
@@ -13366,7 +13386,7 @@
       <c r="L121" s="1" t="s">
         <v>2196</v>
       </c>
-      <c r="M121" t="s">
+      <c r="M121" s="1" t="s">
         <v>723</v>
       </c>
     </row>
@@ -13407,7 +13427,7 @@
       <c r="L122" s="1">
         <v>26049</v>
       </c>
-      <c r="M122" t="s">
+      <c r="M122" s="1" t="s">
         <v>728</v>
       </c>
     </row>
@@ -13448,7 +13468,7 @@
       <c r="L123" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="M123" t="s">
+      <c r="M123" s="1" t="s">
         <v>733</v>
       </c>
     </row>
@@ -13489,7 +13509,7 @@
       <c r="L124" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="M124" t="s">
+      <c r="M124" s="1" t="s">
         <v>738</v>
       </c>
     </row>
@@ -13530,7 +13550,7 @@
       <c r="L125" s="1">
         <v>55039</v>
       </c>
-      <c r="M125" t="s">
+      <c r="M125" s="1" t="s">
         <v>742</v>
       </c>
     </row>
@@ -13571,7 +13591,7 @@
       <c r="L126" s="1" t="s">
         <v>2201</v>
       </c>
-      <c r="M126" t="s">
+      <c r="M126" s="1" t="s">
         <v>747</v>
       </c>
     </row>
@@ -13612,7 +13632,7 @@
       <c r="L127" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="M127" t="s">
+      <c r="M127" s="1" t="s">
         <v>753</v>
       </c>
     </row>
@@ -13653,7 +13673,7 @@
       <c r="L128" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="M128" t="s">
+      <c r="M128" s="1" t="s">
         <v>759</v>
       </c>
     </row>
@@ -13694,7 +13714,7 @@
       <c r="L129" s="1" t="s">
         <v>2204</v>
       </c>
-      <c r="M129" t="s">
+      <c r="M129" s="1" t="s">
         <v>763</v>
       </c>
     </row>
@@ -13735,7 +13755,7 @@
       <c r="L130" s="1" t="s">
         <v>2205</v>
       </c>
-      <c r="M130" t="s">
+      <c r="M130" s="1" t="s">
         <v>768</v>
       </c>
     </row>
@@ -13776,7 +13796,7 @@
       <c r="L131" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="M131" t="s">
+      <c r="M131" s="1" t="s">
         <v>774</v>
       </c>
     </row>
@@ -13817,7 +13837,7 @@
       <c r="L132" s="1">
         <v>13139</v>
       </c>
-      <c r="M132" t="s">
+      <c r="M132" s="1" t="s">
         <v>778</v>
       </c>
     </row>
@@ -13858,7 +13878,7 @@
       <c r="L133" s="1">
         <v>42001</v>
       </c>
-      <c r="M133">
+      <c r="M133" s="1">
         <v>17325</v>
       </c>
     </row>
@@ -13899,7 +13919,7 @@
       <c r="L134" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="M134">
+      <c r="M134" s="1">
         <v>12801</v>
       </c>
     </row>
@@ -13940,7 +13960,7 @@
       <c r="L135" s="1">
         <v>37191</v>
       </c>
-      <c r="M135" t="s">
+      <c r="M135" s="1" t="s">
         <v>790</v>
       </c>
     </row>
@@ -13981,7 +14001,7 @@
       <c r="L136" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="M136" t="s">
+      <c r="M136" s="1" t="s">
         <v>795</v>
       </c>
     </row>
@@ -14022,7 +14042,7 @@
       <c r="L137" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="M137" t="s">
+      <c r="M137" s="1" t="s">
         <v>802</v>
       </c>
     </row>
@@ -14063,7 +14083,7 @@
       <c r="L138" s="1" t="s">
         <v>2213</v>
       </c>
-      <c r="M138" t="s">
+      <c r="M138" s="1" t="s">
         <v>807</v>
       </c>
     </row>
@@ -14104,7 +14124,7 @@
       <c r="L139" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="M139" t="s">
+      <c r="M139" s="1" t="s">
         <v>812</v>
       </c>
     </row>
@@ -14145,7 +14165,7 @@
       <c r="L140" s="1">
         <v>41033</v>
       </c>
-      <c r="M140" t="s">
+      <c r="M140" s="1" t="s">
         <v>817</v>
       </c>
     </row>
@@ -14186,7 +14206,7 @@
       <c r="L141" s="1">
         <v>30013</v>
       </c>
-      <c r="M141" t="s">
+      <c r="M141" s="1" t="s">
         <v>822</v>
       </c>
     </row>
@@ -14227,7 +14247,7 @@
       <c r="L142" s="1" t="s">
         <v>2217</v>
       </c>
-      <c r="M142" t="s">
+      <c r="M142" s="1" t="s">
         <v>827</v>
       </c>
     </row>
@@ -14268,7 +14288,7 @@
       <c r="L143" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="M143" t="s">
+      <c r="M143" s="1" t="s">
         <v>833</v>
       </c>
     </row>
@@ -14309,7 +14329,7 @@
       <c r="L144" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="M144" t="s">
+      <c r="M144" s="1" t="s">
         <v>839</v>
       </c>
     </row>
@@ -14350,7 +14370,7 @@
       <c r="L145" s="1">
         <v>37147</v>
       </c>
-      <c r="M145" t="s">
+      <c r="M145" s="1" t="s">
         <v>844</v>
       </c>
     </row>
@@ -14391,7 +14411,7 @@
       <c r="L146" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="M146" t="s">
+      <c r="M146" s="1" t="s">
         <v>848</v>
       </c>
     </row>
@@ -14432,7 +14452,7 @@
       <c r="L147" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="M147" t="s">
+      <c r="M147" s="1" t="s">
         <v>856</v>
       </c>
     </row>
@@ -14473,7 +14493,7 @@
       <c r="L148" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="M148" t="s">
+      <c r="M148" s="1" t="s">
         <v>861</v>
       </c>
     </row>
@@ -14514,7 +14534,7 @@
       <c r="L149" s="1">
         <v>22105</v>
       </c>
-      <c r="M149" t="s">
+      <c r="M149" s="1" t="s">
         <v>866</v>
       </c>
     </row>
@@ -14555,7 +14575,7 @@
       <c r="L150" s="1" t="s">
         <v>2225</v>
       </c>
-      <c r="M150" t="s">
+      <c r="M150" s="1" t="s">
         <v>871</v>
       </c>
     </row>
@@ -14596,7 +14616,7 @@
       <c r="L151" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="M151" t="s">
+      <c r="M151" s="1" t="s">
         <v>877</v>
       </c>
     </row>
@@ -14637,7 +14657,7 @@
       <c r="L152" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="M152" t="s">
+      <c r="M152" s="1" t="s">
         <v>882</v>
       </c>
     </row>
@@ -14678,7 +14698,7 @@
       <c r="L153" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="M153" t="s">
+      <c r="M153" s="1" t="s">
         <v>887</v>
       </c>
     </row>
@@ -14719,7 +14739,7 @@
       <c r="L154" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="M154" t="s">
+      <c r="M154" s="1" t="s">
         <v>893</v>
       </c>
     </row>
@@ -14760,7 +14780,7 @@
       <c r="L155" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="M155" t="s">
+      <c r="M155" s="1" t="s">
         <v>899</v>
       </c>
     </row>
@@ -14801,7 +14821,7 @@
       <c r="L156" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="M156" t="s">
+      <c r="M156" s="1" t="s">
         <v>905</v>
       </c>
     </row>
@@ -14842,7 +14862,7 @@
       <c r="L157" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="M157" t="s">
+      <c r="M157" s="1" t="s">
         <v>911</v>
       </c>
     </row>
@@ -14883,7 +14903,7 @@
       <c r="L158" s="1">
         <v>12017</v>
       </c>
-      <c r="M158" t="s">
+      <c r="M158" s="1" t="s">
         <v>916</v>
       </c>
     </row>
@@ -14924,7 +14944,7 @@
       <c r="L159" s="1" t="s">
         <v>2234</v>
       </c>
-      <c r="M159" t="s">
+      <c r="M159" s="1" t="s">
         <v>921</v>
       </c>
     </row>
@@ -14965,7 +14985,7 @@
       <c r="L160" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="M160" t="s">
+      <c r="M160" s="1" t="s">
         <v>927</v>
       </c>
     </row>
@@ -15006,7 +15026,7 @@
       <c r="L161" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="M161" t="s">
+      <c r="M161" s="1" t="s">
         <v>932</v>
       </c>
     </row>
@@ -15047,7 +15067,7 @@
       <c r="L162" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="M162" t="s">
+      <c r="M162" s="1" t="s">
         <v>938</v>
       </c>
     </row>
@@ -15088,7 +15108,7 @@
       <c r="L163" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="M163" t="s">
+      <c r="M163" s="1" t="s">
         <v>944</v>
       </c>
     </row>
@@ -15129,7 +15149,7 @@
       <c r="L164" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="M164" t="s">
+      <c r="M164" s="1" t="s">
         <v>950</v>
       </c>
     </row>
@@ -15170,7 +15190,7 @@
       <c r="L165" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="M165" t="s">
+      <c r="M165" s="1" t="s">
         <v>956</v>
       </c>
     </row>
@@ -15211,7 +15231,7 @@
       <c r="L166" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="M166" t="s">
+      <c r="M166" s="1" t="s">
         <v>962</v>
       </c>
     </row>
@@ -15252,7 +15272,7 @@
       <c r="L167" s="1">
         <v>36109</v>
       </c>
-      <c r="M167" t="s">
+      <c r="M167" s="1" t="s">
         <v>967</v>
       </c>
     </row>
@@ -15293,7 +15313,7 @@
       <c r="L168" s="1">
         <v>26075</v>
       </c>
-      <c r="M168" t="s">
+      <c r="M168" s="1" t="s">
         <v>970</v>
       </c>
     </row>
@@ -15334,7 +15354,7 @@
       <c r="L169" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="M169" t="s">
+      <c r="M169" s="1" t="s">
         <v>975</v>
       </c>
     </row>
@@ -15375,7 +15395,7 @@
       <c r="L170" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="M170" t="s">
+      <c r="M170" s="1" t="s">
         <v>979</v>
       </c>
     </row>
@@ -15416,7 +15436,7 @@
       <c r="L171" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="M171" t="s">
+      <c r="M171" s="1" t="s">
         <v>985</v>
       </c>
     </row>
@@ -15457,7 +15477,7 @@
       <c r="L172" s="1">
         <v>37133</v>
       </c>
-      <c r="M172" t="s">
+      <c r="M172" s="1" t="s">
         <v>989</v>
       </c>
     </row>
@@ -15498,7 +15518,7 @@
       <c r="L173" s="1">
         <v>55105</v>
       </c>
-      <c r="M173" t="s">
+      <c r="M173" s="1" t="s">
         <v>994</v>
       </c>
     </row>
@@ -15539,7 +15559,7 @@
       <c r="L174" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="M174" t="s">
+      <c r="M174" s="1" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -15580,7 +15600,7 @@
       <c r="L175" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="M175" t="s">
+      <c r="M175" s="1" t="s">
         <v>1005</v>
       </c>
     </row>
@@ -15621,7 +15641,7 @@
       <c r="L176" s="1">
         <v>42021</v>
       </c>
-      <c r="M176" t="s">
+      <c r="M176" s="1" t="s">
         <v>1010</v>
       </c>
     </row>
@@ -15662,7 +15682,7 @@
       <c r="L177" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="M177" t="s">
+      <c r="M177" s="1" t="s">
         <v>1016</v>
       </c>
     </row>
@@ -15703,7 +15723,7 @@
       <c r="L178" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="M178" t="s">
+      <c r="M178" s="1" t="s">
         <v>1022</v>
       </c>
     </row>
@@ -15744,7 +15764,7 @@
       <c r="L179" s="1">
         <v>15009</v>
       </c>
-      <c r="M179" t="s">
+      <c r="M179" s="1" t="s">
         <v>1029</v>
       </c>
     </row>
@@ -15785,7 +15805,7 @@
       <c r="L180" s="1">
         <v>26077</v>
       </c>
-      <c r="M180" t="s">
+      <c r="M180" s="1" t="s">
         <v>1033</v>
       </c>
     </row>
@@ -15826,7 +15846,7 @@
       <c r="L181" s="1">
         <v>17091</v>
       </c>
-      <c r="M181">
+      <c r="M181" s="1">
         <v>60901</v>
       </c>
     </row>
@@ -15867,7 +15887,7 @@
       <c r="L182" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="M182" t="s">
+      <c r="M182" s="1" t="s">
         <v>1041</v>
       </c>
     </row>
@@ -15908,7 +15928,7 @@
       <c r="L183" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="M183" t="s">
+      <c r="M183" s="1" t="s">
         <v>1046</v>
       </c>
     </row>
@@ -15949,7 +15969,7 @@
       <c r="L184" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="M184" t="s">
+      <c r="M184" s="1" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -15990,7 +16010,7 @@
       <c r="L185" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="M185" t="s">
+      <c r="M185" s="1" t="s">
         <v>1058</v>
       </c>
     </row>
@@ -16031,7 +16051,7 @@
       <c r="L186" s="1">
         <v>36111</v>
       </c>
-      <c r="M186" t="s">
+      <c r="M186" s="1" t="s">
         <v>1063</v>
       </c>
     </row>
@@ -16072,7 +16092,7 @@
       <c r="L187" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="M187" t="s">
+      <c r="M187" s="1" t="s">
         <v>1069</v>
       </c>
     </row>
@@ -16113,7 +16133,7 @@
       <c r="L188" s="1">
         <v>18067</v>
       </c>
-      <c r="M188" t="s">
+      <c r="M188" s="1" t="s">
         <v>1074</v>
       </c>
     </row>
@@ -16154,7 +16174,7 @@
       <c r="L189" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="M189" t="s">
+      <c r="M189" s="1" t="s">
         <v>1079</v>
       </c>
     </row>
@@ -16195,7 +16215,7 @@
       <c r="L190" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="M190" t="s">
+      <c r="M190" s="1" t="s">
         <v>1084</v>
       </c>
     </row>
@@ -16236,7 +16256,7 @@
       <c r="L191" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="M191" t="s">
+      <c r="M191" s="1" t="s">
         <v>1089</v>
       </c>
     </row>
@@ -16277,7 +16297,7 @@
       <c r="L192" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="M192" t="s">
+      <c r="M192" s="1" t="s">
         <v>1095</v>
       </c>
     </row>
@@ -16318,7 +16338,7 @@
       <c r="L193" s="1" t="s">
         <v>2268</v>
       </c>
-      <c r="M193" t="s">
+      <c r="M193" s="1" t="s">
         <v>1100</v>
       </c>
     </row>
@@ -16359,7 +16379,7 @@
       <c r="L194" s="1">
         <v>12105</v>
       </c>
-      <c r="M194" t="s">
+      <c r="M194" s="1" t="s">
         <v>1104</v>
       </c>
     </row>
@@ -16400,7 +16420,7 @@
       <c r="L195" s="1">
         <v>42071</v>
       </c>
-      <c r="M195" t="s">
+      <c r="M195" s="1" t="s">
         <v>1108</v>
       </c>
     </row>
@@ -16441,7 +16461,7 @@
       <c r="L196" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="M196" t="s">
+      <c r="M196" s="1" t="s">
         <v>1114</v>
       </c>
     </row>
@@ -16482,7 +16502,7 @@
       <c r="L197" s="1">
         <v>48479</v>
       </c>
-      <c r="M197" t="s">
+      <c r="M197" s="1" t="s">
         <v>1119</v>
       </c>
     </row>
@@ -16523,7 +16543,7 @@
       <c r="L198" s="1">
         <v>35013</v>
       </c>
-      <c r="M198" t="s">
+      <c r="M198" s="1" t="s">
         <v>1124</v>
       </c>
     </row>
@@ -16564,7 +16584,7 @@
       <c r="L199" s="1">
         <v>32003</v>
       </c>
-      <c r="M199" t="s">
+      <c r="M199" s="1" t="s">
         <v>1129</v>
       </c>
     </row>
@@ -16605,7 +16625,7 @@
       <c r="L200" s="1">
         <v>20045</v>
       </c>
-      <c r="M200" t="s">
+      <c r="M200" s="1" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -16646,7 +16666,7 @@
       <c r="L201" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="M201" t="s">
+      <c r="M201" s="1" t="s">
         <v>1142</v>
       </c>
     </row>
@@ -16687,7 +16707,7 @@
       <c r="L202" s="1">
         <v>42075</v>
       </c>
-      <c r="M202" t="s">
+      <c r="M202" s="1" t="s">
         <v>1146</v>
       </c>
     </row>
@@ -16728,7 +16748,7 @@
       <c r="L203" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="M203">
+      <c r="M203" s="1">
         <v>83501</v>
       </c>
     </row>
@@ -16769,7 +16789,7 @@
       <c r="L204" s="1">
         <v>23001</v>
       </c>
-      <c r="M204" t="s">
+      <c r="M204" s="1" t="s">
         <v>1155</v>
       </c>
     </row>
@@ -16810,7 +16830,7 @@
       <c r="L205" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="M205" t="s">
+      <c r="M205" s="1" t="s">
         <v>1161</v>
       </c>
     </row>
@@ -16851,7 +16871,7 @@
       <c r="L206" s="1">
         <v>39003</v>
       </c>
-      <c r="M206" t="s">
+      <c r="M206" s="1" t="s">
         <v>1165</v>
       </c>
     </row>
@@ -16892,7 +16912,7 @@
       <c r="L207" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="M207" t="s">
+      <c r="M207" s="1" t="s">
         <v>1170</v>
       </c>
     </row>
@@ -16933,7 +16953,7 @@
       <c r="L208" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="M208" t="s">
+      <c r="M208" s="1" t="s">
         <v>1176</v>
       </c>
     </row>
@@ -16974,7 +16994,7 @@
       <c r="L209" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="M209" t="s">
+      <c r="M209" s="1" t="s">
         <v>1184</v>
       </c>
     </row>
@@ -17015,7 +17035,7 @@
       <c r="L210" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="M210" t="s">
+      <c r="M210" s="1" t="s">
         <v>1190</v>
       </c>
     </row>
@@ -17056,7 +17076,7 @@
       <c r="L211" s="1">
         <v>53015</v>
       </c>
-      <c r="M211">
+      <c r="M211" s="1">
         <v>98632</v>
       </c>
     </row>
@@ -17097,7 +17117,7 @@
       <c r="L212" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="M212" t="s">
+      <c r="M212" s="1" t="s">
         <v>1198</v>
       </c>
     </row>
@@ -17138,7 +17158,7 @@
       <c r="L213" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="M213" t="s">
+      <c r="M213" s="1" t="s">
         <v>1203</v>
       </c>
     </row>
@@ -17179,7 +17199,7 @@
       <c r="L214" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="M214" t="s">
+      <c r="M214" s="1" t="s">
         <v>1208</v>
       </c>
     </row>
@@ -17220,7 +17240,7 @@
       <c r="L215" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="M215" t="s">
+      <c r="M215" s="1" t="s">
         <v>1213</v>
       </c>
     </row>
@@ -17261,7 +17281,7 @@
       <c r="L216" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="M216" t="s">
+      <c r="M216" s="1" t="s">
         <v>1218</v>
       </c>
     </row>
@@ -17302,7 +17322,7 @@
       <c r="L217" s="1" t="s">
         <v>2292</v>
       </c>
-      <c r="M217" t="s">
+      <c r="M217" s="1" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -17343,7 +17363,7 @@
       <c r="L218" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="M218" t="s">
+      <c r="M218" s="1" t="s">
         <v>1227</v>
       </c>
     </row>
@@ -17384,7 +17404,7 @@
       <c r="L219" s="1">
         <v>33011</v>
       </c>
-      <c r="M219" t="s">
+      <c r="M219" s="1" t="s">
         <v>1234</v>
       </c>
     </row>
@@ -17425,7 +17445,7 @@
       <c r="L220" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="M220" t="s">
+      <c r="M220" s="1" t="s">
         <v>1240</v>
       </c>
     </row>
@@ -17466,7 +17486,7 @@
       <c r="L221" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="M221" t="s">
+      <c r="M221" s="1" t="s">
         <v>1246</v>
       </c>
     </row>
@@ -17507,7 +17527,7 @@
       <c r="L222" s="1">
         <v>39139</v>
       </c>
-      <c r="M222" t="s">
+      <c r="M222" s="1" t="s">
         <v>1250</v>
       </c>
     </row>
@@ -17548,7 +17568,7 @@
       <c r="L223" s="1">
         <v>48215</v>
       </c>
-      <c r="M223" t="s">
+      <c r="M223" s="1" t="s">
         <v>1255</v>
       </c>
     </row>
@@ -17589,7 +17609,7 @@
       <c r="L224" s="1">
         <v>41029</v>
       </c>
-      <c r="M224" t="s">
+      <c r="M224" s="1" t="s">
         <v>1258</v>
       </c>
     </row>
@@ -17630,7 +17650,7 @@
       <c r="L225" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="M225" t="s">
+      <c r="M225" s="1" t="s">
         <v>1264</v>
       </c>
     </row>
@@ -17671,7 +17691,7 @@
       <c r="L226" s="1" t="s">
         <v>2301</v>
       </c>
-      <c r="M226" t="s">
+      <c r="M226" s="1" t="s">
         <v>1268</v>
       </c>
     </row>
@@ -17712,7 +17732,7 @@
       <c r="L227" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="M227" t="s">
+      <c r="M227" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
@@ -17753,7 +17773,7 @@
       <c r="L228" s="1">
         <v>18091</v>
       </c>
-      <c r="M228" t="s">
+      <c r="M228" s="1" t="s">
         <v>1279</v>
       </c>
     </row>
@@ -17794,7 +17814,7 @@
       <c r="L229" s="1">
         <v>26111</v>
       </c>
-      <c r="M229" t="s">
+      <c r="M229" s="1" t="s">
         <v>1283</v>
       </c>
     </row>
@@ -17835,7 +17855,7 @@
       <c r="L230" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="M230" t="s">
+      <c r="M230" s="1" t="s">
         <v>1287</v>
       </c>
     </row>
@@ -17876,7 +17896,7 @@
       <c r="L231" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="M231" t="s">
+      <c r="M231" s="1" t="s">
         <v>1292</v>
       </c>
     </row>
@@ -17917,7 +17937,7 @@
       <c r="L232" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="M232" t="s">
+      <c r="M232" s="1" t="s">
         <v>1298</v>
       </c>
     </row>
@@ -17958,7 +17978,7 @@
       <c r="L233" s="1">
         <v>30063</v>
       </c>
-      <c r="M233" t="s">
+      <c r="M233" s="1" t="s">
         <v>1302</v>
       </c>
     </row>
@@ -17999,7 +18019,7 @@
       <c r="L234" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="M234" t="s">
+      <c r="M234" s="1" t="s">
         <v>1307</v>
       </c>
     </row>
@@ -18040,7 +18060,7 @@
       <c r="L235" s="1" t="s">
         <v>2310</v>
       </c>
-      <c r="M235" t="s">
+      <c r="M235" s="1" t="s">
         <v>1312</v>
       </c>
     </row>
@@ -18081,7 +18101,7 @@
       <c r="L236" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="M236" t="s">
+      <c r="M236" s="1" t="s">
         <v>1317</v>
       </c>
     </row>
@@ -18122,7 +18142,7 @@
       <c r="L237" s="1">
         <v>26115</v>
       </c>
-      <c r="M237" t="s">
+      <c r="M237" s="1" t="s">
         <v>1319</v>
       </c>
     </row>
@@ -18163,7 +18183,7 @@
       <c r="L238" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="M238" t="s">
+      <c r="M238" s="1" t="s">
         <v>1323</v>
       </c>
     </row>
@@ -18204,7 +18224,7 @@
       <c r="L239" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="M239" t="s">
+      <c r="M239" s="1" t="s">
         <v>1329</v>
       </c>
     </row>
@@ -18245,7 +18265,7 @@
       <c r="L240" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="M240" t="s">
+      <c r="M240" s="1" t="s">
         <v>1335</v>
       </c>
     </row>
@@ -18286,7 +18306,7 @@
       <c r="L241" s="1">
         <v>53057</v>
       </c>
-      <c r="M241" t="s">
+      <c r="M241" s="1" t="s">
         <v>1340</v>
       </c>
     </row>
@@ -18327,7 +18347,7 @@
       <c r="L242" s="1">
         <v>18035</v>
       </c>
-      <c r="M242" t="s">
+      <c r="M242" s="1" t="s">
         <v>1344</v>
       </c>
     </row>
@@ -18368,7 +18388,7 @@
       <c r="L243" s="1">
         <v>26121</v>
       </c>
-      <c r="M243" t="s">
+      <c r="M243" s="1" t="s">
         <v>1348</v>
       </c>
     </row>
@@ -18409,7 +18429,7 @@
       <c r="L244" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="M244" t="s">
+      <c r="M244" s="1" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -18450,7 +18470,7 @@
       <c r="L245" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="M245" t="s">
+      <c r="M245" s="1" t="s">
         <v>1358</v>
       </c>
     </row>
@@ -18491,7 +18511,7 @@
       <c r="L246" s="1">
         <v>12021</v>
       </c>
-      <c r="M246" t="s">
+      <c r="M246" s="1" t="s">
         <v>1363</v>
       </c>
     </row>
@@ -18532,7 +18552,7 @@
       <c r="L247" s="1" t="s">
         <v>1368</v>
       </c>
-      <c r="M247" t="s">
+      <c r="M247" s="1" t="s">
         <v>1369</v>
       </c>
     </row>
@@ -18573,7 +18593,7 @@
       <c r="L248" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="M248" t="s">
+      <c r="M248" s="1" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -18614,7 +18634,7 @@
       <c r="L249" s="1">
         <v>9009</v>
       </c>
-      <c r="M249" t="s">
+      <c r="M249" s="1" t="s">
         <v>1379</v>
       </c>
     </row>
@@ -18655,7 +18675,7 @@
       <c r="L250" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="M250" t="s">
+      <c r="M250" s="1" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -18696,7 +18716,7 @@
       <c r="L251" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="M251" t="s">
+      <c r="M251" s="1" t="s">
         <v>1389</v>
       </c>
     </row>
@@ -18737,7 +18757,7 @@
       <c r="L252" s="1">
         <v>26021</v>
       </c>
-      <c r="M252">
+      <c r="M252" s="1">
         <v>49120</v>
       </c>
     </row>
@@ -18778,7 +18798,7 @@
       <c r="L253" s="1" t="s">
         <v>1398</v>
       </c>
-      <c r="M253" t="s">
+      <c r="M253" s="1" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -18819,7 +18839,7 @@
       <c r="L254" s="1" t="s">
         <v>2329</v>
       </c>
-      <c r="M254" t="s">
+      <c r="M254" s="1" t="s">
         <v>1404</v>
       </c>
     </row>
@@ -18860,7 +18880,7 @@
       <c r="L255" s="1">
         <v>12083</v>
       </c>
-      <c r="M255" t="s">
+      <c r="M255" s="1" t="s">
         <v>1408</v>
       </c>
     </row>
@@ -18901,8 +18921,8 @@
       <c r="L256" s="1">
         <v>34009</v>
       </c>
-      <c r="M256">
-        <v>8226</v>
+      <c r="M256" s="1" t="s">
+        <v>2512</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -18942,7 +18962,7 @@
       <c r="L257" s="1">
         <v>48135</v>
       </c>
-      <c r="M257" t="s">
+      <c r="M257" s="1" t="s">
         <v>1417</v>
       </c>
     </row>
@@ -18983,7 +19003,7 @@
       <c r="L258" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="M258" t="s">
+      <c r="M258" s="1" t="s">
         <v>1423</v>
       </c>
     </row>
@@ -19024,7 +19044,7 @@
       <c r="L259" s="1" t="s">
         <v>1427</v>
       </c>
-      <c r="M259" t="s">
+      <c r="M259" s="1" t="s">
         <v>1428</v>
       </c>
     </row>
@@ -19065,7 +19085,7 @@
       <c r="L260" s="1">
         <v>53067</v>
       </c>
-      <c r="M260" t="s">
+      <c r="M260" s="1" t="s">
         <v>1433</v>
       </c>
     </row>
@@ -19106,7 +19126,7 @@
       <c r="L261" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="M261" t="s">
+      <c r="M261" s="1" t="s">
         <v>1438</v>
       </c>
     </row>
@@ -19147,7 +19167,7 @@
       <c r="L262" s="1" t="s">
         <v>1443</v>
       </c>
-      <c r="M262" t="s">
+      <c r="M262" s="1" t="s">
         <v>1444</v>
       </c>
     </row>
@@ -19188,7 +19208,7 @@
       <c r="L263" s="1">
         <v>55139</v>
       </c>
-      <c r="M263" t="s">
+      <c r="M263" s="1" t="s">
         <v>1449</v>
       </c>
     </row>
@@ -19229,7 +19249,7 @@
       <c r="L264" s="1" t="s">
         <v>1454</v>
       </c>
-      <c r="M264" t="s">
+      <c r="M264" s="1" t="s">
         <v>1455</v>
       </c>
     </row>
@@ -19270,7 +19290,7 @@
       <c r="L265" s="1" t="s">
         <v>2340</v>
       </c>
-      <c r="M265" t="s">
+      <c r="M265" s="1" t="s">
         <v>1460</v>
       </c>
     </row>
@@ -19311,7 +19331,7 @@
       <c r="L266" s="1">
         <v>12009</v>
       </c>
-      <c r="M266" t="s">
+      <c r="M266" s="1" t="s">
         <v>1465</v>
       </c>
     </row>
@@ -19352,7 +19372,7 @@
       <c r="L267" s="1">
         <v>12005</v>
       </c>
-      <c r="M267" t="s">
+      <c r="M267" s="1" t="s">
         <v>1468</v>
       </c>
     </row>
@@ -19393,7 +19413,7 @@
       <c r="L268" s="1" t="s">
         <v>1473</v>
       </c>
-      <c r="M268" t="s">
+      <c r="M268" s="1" t="s">
         <v>1474</v>
       </c>
     </row>
@@ -19434,7 +19454,7 @@
       <c r="L269" s="1" t="s">
         <v>1479</v>
       </c>
-      <c r="M269" t="s">
+      <c r="M269" s="1" t="s">
         <v>1480</v>
       </c>
     </row>
@@ -19475,7 +19495,7 @@
       <c r="L270" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="M270" t="s">
+      <c r="M270" s="1" t="s">
         <v>1485</v>
       </c>
     </row>
@@ -19516,7 +19536,7 @@
       <c r="L271" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="M271" t="s">
+      <c r="M271" s="1" t="s">
         <v>1490</v>
       </c>
     </row>
@@ -19557,7 +19577,7 @@
       <c r="L272" s="1" t="s">
         <v>1495</v>
       </c>
-      <c r="M272" t="s">
+      <c r="M272" s="1" t="s">
         <v>1496</v>
       </c>
     </row>
@@ -19598,7 +19618,7 @@
       <c r="L273" s="1" t="s">
         <v>1500</v>
       </c>
-      <c r="M273" t="s">
+      <c r="M273" s="1" t="s">
         <v>1501</v>
       </c>
     </row>
@@ -19639,7 +19659,7 @@
       <c r="L274" s="1" t="s">
         <v>1506</v>
       </c>
-      <c r="M274" t="s">
+      <c r="M274" s="1" t="s">
         <v>1507</v>
       </c>
     </row>
@@ -19680,7 +19700,7 @@
       <c r="L275" s="1">
         <v>25003</v>
       </c>
-      <c r="M275" t="s">
+      <c r="M275" s="1" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -19721,7 +19741,7 @@
       <c r="L276" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="M276" t="s">
+      <c r="M276" s="1" t="s">
         <v>1518</v>
       </c>
     </row>
@@ -19762,7 +19782,7 @@
       <c r="L277" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="M277" t="s">
+      <c r="M277" s="1" t="s">
         <v>1523</v>
       </c>
     </row>
@@ -19803,7 +19823,7 @@
       <c r="L278" s="1" t="s">
         <v>1527</v>
       </c>
-      <c r="M278" t="s">
+      <c r="M278" s="1" t="s">
         <v>1528</v>
       </c>
     </row>
@@ -19844,7 +19864,7 @@
       <c r="L279" s="1" t="s">
         <v>1533</v>
       </c>
-      <c r="M279" t="s">
+      <c r="M279" s="1" t="s">
         <v>1534</v>
       </c>
     </row>
@@ -19885,7 +19905,7 @@
       <c r="L280" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="M280" t="s">
+      <c r="M280" s="1" t="s">
         <v>1540</v>
       </c>
     </row>
@@ -19926,7 +19946,7 @@
       <c r="L281" s="1" t="s">
         <v>2356</v>
       </c>
-      <c r="M281" t="s">
+      <c r="M281" s="1" t="s">
         <v>1545</v>
       </c>
     </row>
@@ -19967,7 +19987,7 @@
       <c r="L282" s="1" t="s">
         <v>1551</v>
       </c>
-      <c r="M282" t="s">
+      <c r="M282" s="1" t="s">
         <v>1552</v>
       </c>
     </row>
@@ -20008,7 +20028,7 @@
       <c r="L283" s="1" t="s">
         <v>1556</v>
       </c>
-      <c r="M283" t="s">
+      <c r="M283" s="1" t="s">
         <v>1557</v>
       </c>
     </row>
@@ -20049,7 +20069,7 @@
       <c r="L284" s="1" t="s">
         <v>2359</v>
       </c>
-      <c r="M284" t="s">
+      <c r="M284" s="1" t="s">
         <v>1561</v>
       </c>
     </row>
@@ -20090,7 +20110,7 @@
       <c r="L285" s="1">
         <v>12015</v>
       </c>
-      <c r="M285">
+      <c r="M285" s="1">
         <v>33950</v>
       </c>
     </row>
@@ -20131,7 +20151,7 @@
       <c r="L286" s="1">
         <v>55101</v>
       </c>
-      <c r="M286" t="s">
+      <c r="M286" s="1" t="s">
         <v>1568</v>
       </c>
     </row>
@@ -20172,7 +20192,7 @@
       <c r="L287" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="M287" t="s">
+      <c r="M287" s="1" t="s">
         <v>1573</v>
       </c>
     </row>
@@ -20213,7 +20233,7 @@
       <c r="L288" s="1" t="s">
         <v>1580</v>
       </c>
-      <c r="M288" t="s">
+      <c r="M288" s="1" t="s">
         <v>1581</v>
       </c>
     </row>
@@ -20254,7 +20274,7 @@
       <c r="L289" s="1">
         <v>42011</v>
       </c>
-      <c r="M289" t="s">
+      <c r="M289" s="1" t="s">
         <v>1586</v>
       </c>
     </row>
@@ -20295,7 +20315,7 @@
       <c r="L290" s="1" t="s">
         <v>2365</v>
       </c>
-      <c r="M290" t="s">
+      <c r="M290" s="1" t="s">
         <v>1591</v>
       </c>
     </row>
@@ -20336,7 +20356,7 @@
       <c r="L291" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="M291" t="s">
+      <c r="M291" s="1" t="s">
         <v>1597</v>
       </c>
     </row>
@@ -20377,7 +20397,7 @@
       <c r="L292" s="1" t="s">
         <v>1600</v>
       </c>
-      <c r="M292" t="s">
+      <c r="M292" s="1" t="s">
         <v>1601</v>
       </c>
     </row>
@@ -20418,7 +20438,7 @@
       <c r="L293" s="1" t="s">
         <v>1605</v>
       </c>
-      <c r="M293" t="s">
+      <c r="M293" s="1" t="s">
         <v>1606</v>
       </c>
     </row>
@@ -20459,7 +20479,7 @@
       <c r="L294" s="1" t="s">
         <v>1610</v>
       </c>
-      <c r="M294" t="s">
+      <c r="M294" s="1" t="s">
         <v>1611</v>
       </c>
     </row>
@@ -20500,7 +20520,7 @@
       <c r="L295" s="1" t="s">
         <v>1616</v>
       </c>
-      <c r="M295" t="s">
+      <c r="M295" s="1" t="s">
         <v>1617</v>
       </c>
     </row>
@@ -20541,7 +20561,7 @@
       <c r="L296" s="1" t="s">
         <v>1620</v>
       </c>
-      <c r="M296" t="s">
+      <c r="M296" s="1" t="s">
         <v>1621</v>
       </c>
     </row>
@@ -20582,7 +20602,7 @@
       <c r="L297" s="1" t="s">
         <v>1625</v>
       </c>
-      <c r="M297" t="s">
+      <c r="M297" s="1" t="s">
         <v>1626</v>
       </c>
     </row>
@@ -20623,7 +20643,7 @@
       <c r="L298" s="1" t="s">
         <v>1631</v>
       </c>
-      <c r="M298" t="s">
+      <c r="M298" s="1" t="s">
         <v>1632</v>
       </c>
     </row>
@@ -20664,7 +20684,7 @@
       <c r="L299" s="1">
         <v>13115</v>
       </c>
-      <c r="M299" t="s">
+      <c r="M299" s="1" t="s">
         <v>1637</v>
       </c>
     </row>
@@ -20705,7 +20725,7 @@
       <c r="L300" s="1" t="s">
         <v>1641</v>
       </c>
-      <c r="M300" t="s">
+      <c r="M300" s="1" t="s">
         <v>1642</v>
       </c>
     </row>
@@ -20746,7 +20766,7 @@
       <c r="L301" s="1">
         <v>26145</v>
       </c>
-      <c r="M301" t="s">
+      <c r="M301" s="1" t="s">
         <v>1646</v>
       </c>
     </row>
@@ -20787,7 +20807,7 @@
       <c r="L302" s="1" t="s">
         <v>1651</v>
       </c>
-      <c r="M302" t="s">
+      <c r="M302" s="1" t="s">
         <v>1652</v>
       </c>
     </row>
@@ -20828,7 +20848,7 @@
       <c r="L303" s="1">
         <v>49053</v>
       </c>
-      <c r="M303" t="s">
+      <c r="M303" s="1" t="s">
         <v>1656</v>
       </c>
     </row>
@@ -20869,7 +20889,7 @@
       <c r="L304" s="1" t="s">
         <v>1661</v>
       </c>
-      <c r="M304" t="s">
+      <c r="M304" s="1" t="s">
         <v>1662</v>
       </c>
     </row>
@@ -20910,7 +20930,7 @@
       <c r="L305" s="1" t="s">
         <v>1665</v>
       </c>
-      <c r="M305" t="s">
+      <c r="M305" s="1" t="s">
         <v>1666</v>
       </c>
     </row>
@@ -20951,7 +20971,7 @@
       <c r="L306" s="1" t="s">
         <v>1670</v>
       </c>
-      <c r="M306" t="s">
+      <c r="M306" s="1" t="s">
         <v>1671</v>
       </c>
     </row>
@@ -20992,7 +21012,7 @@
       <c r="L307" s="1" t="s">
         <v>2382</v>
       </c>
-      <c r="M307" t="s">
+      <c r="M307" s="1" t="s">
         <v>1676</v>
       </c>
     </row>
@@ -21033,7 +21053,7 @@
       <c r="L308" s="1" t="s">
         <v>1681</v>
       </c>
-      <c r="M308" t="s">
+      <c r="M308" s="1" t="s">
         <v>1682</v>
       </c>
     </row>
@@ -21074,7 +21094,7 @@
       <c r="L309" s="1" t="s">
         <v>1687</v>
       </c>
-      <c r="M309" t="s">
+      <c r="M309" s="1" t="s">
         <v>1688</v>
       </c>
     </row>
@@ -21115,7 +21135,7 @@
       <c r="L310" s="1" t="s">
         <v>1693</v>
       </c>
-      <c r="M310" t="s">
+      <c r="M310" s="1" t="s">
         <v>1694</v>
       </c>
     </row>
@@ -21156,7 +21176,7 @@
       <c r="L311" s="1" t="s">
         <v>1699</v>
       </c>
-      <c r="M311" t="s">
+      <c r="M311" s="1" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -21197,7 +21217,7 @@
       <c r="L312" s="1" t="s">
         <v>2387</v>
       </c>
-      <c r="M312" t="s">
+      <c r="M312" s="1" t="s">
         <v>1704</v>
       </c>
     </row>
@@ -21238,7 +21258,7 @@
       <c r="L313" s="1" t="s">
         <v>1708</v>
       </c>
-      <c r="M313" t="s">
+      <c r="M313" s="1" t="s">
         <v>1709</v>
       </c>
     </row>
@@ -21279,7 +21299,7 @@
       <c r="L314" s="1" t="s">
         <v>1714</v>
       </c>
-      <c r="M314" t="s">
+      <c r="M314" s="1" t="s">
         <v>1715</v>
       </c>
     </row>
@@ -21320,7 +21340,7 @@
       <c r="L315" s="1" t="s">
         <v>2390</v>
       </c>
-      <c r="M315" t="s">
+      <c r="M315" s="1" t="s">
         <v>1719</v>
       </c>
     </row>
@@ -21361,7 +21381,7 @@
       <c r="L316" s="1" t="s">
         <v>2391</v>
       </c>
-      <c r="M316" t="s">
+      <c r="M316" s="1" t="s">
         <v>1723</v>
       </c>
     </row>
@@ -21402,7 +21422,7 @@
       <c r="L317" s="1" t="s">
         <v>2392</v>
       </c>
-      <c r="M317" t="s">
+      <c r="M317" s="1" t="s">
         <v>1727</v>
       </c>
     </row>
@@ -21443,7 +21463,7 @@
       <c r="L318" s="1" t="s">
         <v>2393</v>
       </c>
-      <c r="M318" t="s">
+      <c r="M318" s="1" t="s">
         <v>1732</v>
       </c>
     </row>
@@ -21484,7 +21504,7 @@
       <c r="L319" s="1" t="s">
         <v>2394</v>
       </c>
-      <c r="M319" t="s">
+      <c r="M319" s="1" t="s">
         <v>1737</v>
       </c>
     </row>
@@ -21525,7 +21545,7 @@
       <c r="L320" s="1" t="s">
         <v>1742</v>
       </c>
-      <c r="M320" t="s">
+      <c r="M320" s="1" t="s">
         <v>1743</v>
       </c>
     </row>
@@ -21566,7 +21586,7 @@
       <c r="L321" s="1" t="s">
         <v>1748</v>
       </c>
-      <c r="M321" t="s">
+      <c r="M321" s="1" t="s">
         <v>1749</v>
       </c>
     </row>
@@ -21607,7 +21627,7 @@
       <c r="L322" s="1" t="s">
         <v>1754</v>
       </c>
-      <c r="M322" t="s">
+      <c r="M322" s="1" t="s">
         <v>1755</v>
       </c>
     </row>
@@ -21648,7 +21668,7 @@
       <c r="L323" s="1">
         <v>12061</v>
       </c>
-      <c r="M323" t="s">
+      <c r="M323" s="1" t="s">
         <v>1759</v>
       </c>
     </row>
@@ -21689,7 +21709,7 @@
       <c r="L324" s="1">
         <v>12055</v>
       </c>
-      <c r="M324" t="s">
+      <c r="M324" s="1" t="s">
         <v>1764</v>
       </c>
     </row>
@@ -21730,7 +21750,7 @@
       <c r="L325" s="1">
         <v>55117</v>
       </c>
-      <c r="M325" t="s">
+      <c r="M325" s="1" t="s">
         <v>1768</v>
       </c>
     </row>
@@ -21771,7 +21791,7 @@
       <c r="L326" s="1">
         <v>48181</v>
       </c>
-      <c r="M326" t="s">
+      <c r="M326" s="1" t="s">
         <v>1773</v>
       </c>
     </row>
@@ -21812,7 +21832,7 @@
       <c r="L327" s="1" t="s">
         <v>1778</v>
       </c>
-      <c r="M327" t="s">
+      <c r="M327" s="1" t="s">
         <v>1779</v>
       </c>
     </row>
@@ -21853,7 +21873,7 @@
       <c r="L328" s="1" t="s">
         <v>2403</v>
       </c>
-      <c r="M328" t="s">
+      <c r="M328" s="1" t="s">
         <v>1784</v>
       </c>
     </row>
@@ -21894,7 +21914,7 @@
       <c r="L329" s="1" t="s">
         <v>1789</v>
       </c>
-      <c r="M329" t="s">
+      <c r="M329" s="1" t="s">
         <v>1790</v>
       </c>
     </row>
@@ -21935,7 +21955,7 @@
       <c r="L330" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="M330" t="s">
+      <c r="M330" s="1" t="s">
         <v>1796</v>
       </c>
     </row>
@@ -21976,7 +21996,7 @@
       <c r="L331" s="1" t="s">
         <v>1800</v>
       </c>
-      <c r="M331" t="s">
+      <c r="M331" s="1" t="s">
         <v>1801</v>
       </c>
     </row>
@@ -22017,7 +22037,7 @@
       <c r="L332" s="1">
         <v>45083</v>
       </c>
-      <c r="M332" t="s">
+      <c r="M332" s="1" t="s">
         <v>1805</v>
       </c>
     </row>
@@ -22058,7 +22078,7 @@
       <c r="L333" s="1" t="s">
         <v>1809</v>
       </c>
-      <c r="M333" t="s">
+      <c r="M333" s="1" t="s">
         <v>1810</v>
       </c>
     </row>
@@ -22099,7 +22119,7 @@
       <c r="L334" s="1" t="s">
         <v>1815</v>
       </c>
-      <c r="M334" t="s">
+      <c r="M334" s="1" t="s">
         <v>1816</v>
       </c>
     </row>
@@ -22140,7 +22160,7 @@
       <c r="L335" s="1" t="s">
         <v>1820</v>
       </c>
-      <c r="M335" t="s">
+      <c r="M335" s="1" t="s">
         <v>1821</v>
       </c>
     </row>
@@ -22181,7 +22201,7 @@
       <c r="L336" s="1" t="s">
         <v>1825</v>
       </c>
-      <c r="M336" t="s">
+      <c r="M336" s="1" t="s">
         <v>1826</v>
       </c>
     </row>
@@ -22222,7 +22242,7 @@
       <c r="L337" s="1">
         <v>39023</v>
       </c>
-      <c r="M337" t="s">
+      <c r="M337" s="1" t="s">
         <v>1828</v>
       </c>
     </row>
@@ -22263,7 +22283,7 @@
       <c r="L338" s="1">
         <v>42027</v>
       </c>
-      <c r="M338" t="s">
+      <c r="M338" s="1" t="s">
         <v>1833</v>
       </c>
     </row>
@@ -22304,7 +22324,7 @@
       <c r="L339" s="1" t="s">
         <v>1837</v>
       </c>
-      <c r="M339" t="s">
+      <c r="M339" s="1" t="s">
         <v>1838</v>
       </c>
     </row>
@@ -22345,7 +22365,7 @@
       <c r="L340" s="1" t="s">
         <v>2415</v>
       </c>
-      <c r="M340" t="s">
+      <c r="M340" s="1" t="s">
         <v>1843</v>
       </c>
     </row>
@@ -22386,7 +22406,7 @@
       <c r="L341" s="1" t="s">
         <v>1847</v>
       </c>
-      <c r="M341" t="s">
+      <c r="M341" s="1" t="s">
         <v>1848</v>
       </c>
     </row>
@@ -22427,7 +22447,7 @@
       <c r="L342" s="1" t="s">
         <v>1853</v>
       </c>
-      <c r="M342" t="s">
+      <c r="M342" s="1" t="s">
         <v>1854</v>
       </c>
     </row>
@@ -22468,7 +22488,7 @@
       <c r="L343" s="1" t="s">
         <v>1859</v>
       </c>
-      <c r="M343" t="s">
+      <c r="M343" s="1" t="s">
         <v>1860</v>
       </c>
     </row>
@@ -22509,7 +22529,7 @@
       <c r="L344" s="1" t="s">
         <v>1864</v>
       </c>
-      <c r="M344" t="s">
+      <c r="M344" s="1" t="s">
         <v>1865</v>
       </c>
     </row>
@@ -22550,7 +22570,7 @@
       <c r="L345" s="1" t="s">
         <v>1870</v>
       </c>
-      <c r="M345" t="s">
+      <c r="M345" s="1" t="s">
         <v>1871</v>
       </c>
     </row>
@@ -22591,7 +22611,7 @@
       <c r="L346" s="1" t="s">
         <v>1876</v>
       </c>
-      <c r="M346" t="s">
+      <c r="M346" s="1" t="s">
         <v>1877</v>
       </c>
     </row>
@@ -22632,7 +22652,7 @@
       <c r="L347" s="1">
         <v>12119</v>
       </c>
-      <c r="M347" t="s">
+      <c r="M347" s="1" t="s">
         <v>1881</v>
       </c>
     </row>
@@ -22673,7 +22693,7 @@
       <c r="L348" s="1" t="s">
         <v>1886</v>
       </c>
-      <c r="M348" t="s">
+      <c r="M348" s="1" t="s">
         <v>1887</v>
       </c>
     </row>
@@ -22714,7 +22734,7 @@
       <c r="L349" s="1" t="s">
         <v>1892</v>
       </c>
-      <c r="M349" t="s">
+      <c r="M349" s="1" t="s">
         <v>1893</v>
       </c>
     </row>
@@ -22755,7 +22775,7 @@
       <c r="L350" s="1">
         <v>34021</v>
       </c>
-      <c r="M350" t="s">
+      <c r="M350" s="1" t="s">
         <v>1898</v>
       </c>
     </row>
@@ -22796,7 +22816,7 @@
       <c r="L351" s="1" t="s">
         <v>2426</v>
       </c>
-      <c r="M351" t="s">
+      <c r="M351" s="1" t="s">
         <v>1903</v>
       </c>
     </row>
@@ -22837,7 +22857,7 @@
       <c r="L352" s="1" t="s">
         <v>1907</v>
       </c>
-      <c r="M352" t="s">
+      <c r="M352" s="1" t="s">
         <v>1908</v>
       </c>
     </row>
@@ -22878,7 +22898,7 @@
       <c r="L353" s="1" t="s">
         <v>1912</v>
       </c>
-      <c r="M353" t="s">
+      <c r="M353" s="1" t="s">
         <v>1913</v>
       </c>
     </row>
@@ -22919,7 +22939,7 @@
       <c r="L354" s="1" t="s">
         <v>1917</v>
       </c>
-      <c r="M354" t="s">
+      <c r="M354" s="1" t="s">
         <v>1918</v>
       </c>
     </row>
@@ -22960,7 +22980,7 @@
       <c r="L355" s="1">
         <v>48423</v>
       </c>
-      <c r="M355" t="s">
+      <c r="M355" s="1" t="s">
         <v>1923</v>
       </c>
     </row>
@@ -23001,7 +23021,7 @@
       <c r="L356" s="1">
         <v>15003</v>
       </c>
-      <c r="M356" t="s">
+      <c r="M356" s="1" t="s">
         <v>1927</v>
       </c>
     </row>
@@ -23042,7 +23062,7 @@
       <c r="L357" s="1" t="s">
         <v>1932</v>
       </c>
-      <c r="M357" t="s">
+      <c r="M357" s="1" t="s">
         <v>1933</v>
       </c>
     </row>
@@ -23083,7 +23103,7 @@
       <c r="L358" s="1" t="s">
         <v>1938</v>
       </c>
-      <c r="M358" t="s">
+      <c r="M358" s="1" t="s">
         <v>1939</v>
       </c>
     </row>
@@ -23124,7 +23144,7 @@
       <c r="L359" s="1" t="s">
         <v>2434</v>
       </c>
-      <c r="M359" t="s">
+      <c r="M359" s="1" t="s">
         <v>1944</v>
       </c>
     </row>
@@ -23165,7 +23185,7 @@
       <c r="L360" s="1" t="s">
         <v>1948</v>
       </c>
-      <c r="M360" t="s">
+      <c r="M360" s="1" t="s">
         <v>1949</v>
       </c>
     </row>
@@ -23206,7 +23226,7 @@
       <c r="L361" s="1">
         <v>34011</v>
       </c>
-      <c r="M361" t="s">
+      <c r="M361" s="1" t="s">
         <v>1953</v>
       </c>
     </row>
@@ -23247,7 +23267,7 @@
       <c r="L362" s="1" t="s">
         <v>1957</v>
       </c>
-      <c r="M362" t="s">
+      <c r="M362" s="1" t="s">
         <v>1958</v>
       </c>
     </row>
@@ -23288,7 +23308,7 @@
       <c r="L363" s="1" t="s">
         <v>2438</v>
       </c>
-      <c r="M363" t="s">
+      <c r="M363" s="1" t="s">
         <v>1963</v>
       </c>
     </row>
@@ -23329,7 +23349,7 @@
       <c r="L364" s="1" t="s">
         <v>1968</v>
       </c>
-      <c r="M364" t="s">
+      <c r="M364" s="1" t="s">
         <v>1969</v>
       </c>
     </row>
@@ -23370,7 +23390,7 @@
       <c r="L365" s="1">
         <v>53071</v>
       </c>
-      <c r="M365">
+      <c r="M365" s="1">
         <v>99362</v>
       </c>
     </row>
@@ -23411,7 +23431,7 @@
       <c r="L366" s="1" t="s">
         <v>1976</v>
       </c>
-      <c r="M366" t="s">
+      <c r="M366" s="1" t="s">
         <v>1977</v>
       </c>
     </row>
@@ -23452,7 +23472,7 @@
       <c r="L367" s="1" t="s">
         <v>1982</v>
       </c>
-      <c r="M367" t="s">
+      <c r="M367" s="1" t="s">
         <v>1983</v>
       </c>
     </row>
@@ -23493,7 +23513,7 @@
       <c r="L368" s="1" t="s">
         <v>1988</v>
       </c>
-      <c r="M368" t="s">
+      <c r="M368" s="1" t="s">
         <v>1989</v>
       </c>
     </row>
@@ -23534,7 +23554,7 @@
       <c r="L369" s="1">
         <v>36045</v>
       </c>
-      <c r="M369" t="s">
+      <c r="M369" s="1" t="s">
         <v>1993</v>
       </c>
     </row>
@@ -23575,7 +23595,7 @@
       <c r="L370" s="1" t="s">
         <v>1998</v>
       </c>
-      <c r="M370" t="s">
+      <c r="M370" s="1" t="s">
         <v>1999</v>
       </c>
     </row>
@@ -23616,7 +23636,7 @@
       <c r="L371" s="1" t="s">
         <v>2004</v>
       </c>
-      <c r="M371" t="s">
+      <c r="M371" s="1" t="s">
         <v>2005</v>
       </c>
     </row>
@@ -23657,7 +23677,7 @@
       <c r="L372" s="1" t="s">
         <v>2010</v>
       </c>
-      <c r="M372">
+      <c r="M372" s="1">
         <v>98801</v>
       </c>
     </row>
@@ -23698,7 +23718,7 @@
       <c r="L373" s="1" t="s">
         <v>2014</v>
       </c>
-      <c r="M373">
+      <c r="M373" s="1">
         <v>26003</v>
       </c>
     </row>
@@ -23739,7 +23759,7 @@
       <c r="L374" s="1" t="s">
         <v>2019</v>
       </c>
-      <c r="M374" t="s">
+      <c r="M374" s="1" t="s">
         <v>2020</v>
       </c>
     </row>
@@ -23780,7 +23800,7 @@
       <c r="L375" s="1" t="s">
         <v>2024</v>
       </c>
-      <c r="M375" t="s">
+      <c r="M375" s="1" t="s">
         <v>2025</v>
       </c>
     </row>
@@ -23821,7 +23841,7 @@
       <c r="L376" s="1">
         <v>42081</v>
       </c>
-      <c r="M376" t="s">
+      <c r="M376" s="1" t="s">
         <v>2030</v>
       </c>
     </row>
@@ -23862,7 +23882,7 @@
       <c r="L377" s="1" t="s">
         <v>2035</v>
       </c>
-      <c r="M377" t="s">
+      <c r="M377" s="1" t="s">
         <v>2036</v>
       </c>
     </row>
@@ -23903,7 +23923,7 @@
       <c r="L378" s="1" t="s">
         <v>2040</v>
       </c>
-      <c r="M378" t="s">
+      <c r="M378" s="1" t="s">
         <v>2041</v>
       </c>
     </row>
@@ -23944,7 +23964,7 @@
       <c r="L379" s="1" t="s">
         <v>2046</v>
       </c>
-      <c r="M379" t="s">
+      <c r="M379" s="1" t="s">
         <v>2047</v>
       </c>
     </row>
@@ -23985,7 +24005,7 @@
       <c r="L380" s="1" t="s">
         <v>2051</v>
       </c>
-      <c r="M380" t="s">
+      <c r="M380" s="1" t="s">
         <v>2052</v>
       </c>
     </row>
@@ -24026,7 +24046,7 @@
       <c r="L381" s="1">
         <v>53077</v>
       </c>
-      <c r="M381" t="s">
+      <c r="M381" s="1" t="s">
         <v>2056</v>
       </c>
     </row>
@@ -24067,7 +24087,7 @@
       <c r="L382" s="1">
         <v>42133</v>
       </c>
-      <c r="M382" t="s">
+      <c r="M382" s="1" t="s">
         <v>2060</v>
       </c>
     </row>
@@ -24108,7 +24128,7 @@
       <c r="L383" s="1" t="s">
         <v>2065</v>
       </c>
-      <c r="M383" t="s">
+      <c r="M383" s="1" t="s">
         <v>2066</v>
       </c>
     </row>
@@ -24149,7 +24169,7 @@
       <c r="L384" s="1" t="s">
         <v>2071</v>
       </c>
-      <c r="M384" t="s">
+      <c r="M384" s="1" t="s">
         <v>2072</v>
       </c>
     </row>
@@ -24190,11 +24210,12 @@
       <c r="L385" s="1" t="s">
         <v>2460</v>
       </c>
-      <c r="M385" t="s">
+      <c r="M385" s="1" t="s">
         <v>2076</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/Data/master_list.xlsx
+++ b/Resources/Data/master_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51aaa36d9ab95471/Desktop/Analysis Projects/temp/CityStats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thepauls/Desktop/code/Module_20/FinalProject_BusinessFormation/Resources/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:40009_{3AF74E42-C002-472F-86DF-F89073EADAE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{72C838D0-83E6-415E-BE44-CC71605EA52E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5550823-9544-E64D-B385-3B24128C8D2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="4800" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master_list" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3732" uniqueCount="2513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4103" uniqueCount="2519">
   <si>
     <t>CBSA</t>
   </si>
@@ -7573,13 +7573,31 @@
   </si>
   <si>
     <t>08226</t>
+  </si>
+  <si>
+    <t>Southwest</t>
+  </si>
+  <si>
+    <t>Midwest</t>
+  </si>
+  <si>
+    <t>Southeast</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Northeast</t>
+  </si>
+  <si>
+    <t>region</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8414,22 +8432,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M385"/>
+  <dimension ref="A1:N385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8469,8 +8485,11 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>10180</v>
       </c>
@@ -8510,8 +8529,11 @@
       <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>10420</v>
       </c>
@@ -8551,8 +8573,11 @@
       <c r="M3" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>10500</v>
       </c>
@@ -8592,8 +8617,11 @@
       <c r="M4" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>10540</v>
       </c>
@@ -8633,8 +8661,11 @@
       <c r="M5" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>10580</v>
       </c>
@@ -8674,8 +8705,11 @@
       <c r="M6" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>10740</v>
       </c>
@@ -8715,8 +8749,11 @@
       <c r="M7" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>10780</v>
       </c>
@@ -8756,8 +8793,11 @@
       <c r="M8" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>10900</v>
       </c>
@@ -8797,8 +8837,11 @@
       <c r="M9" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>11020</v>
       </c>
@@ -8838,8 +8881,11 @@
       <c r="M10" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>11100</v>
       </c>
@@ -8879,8 +8925,11 @@
       <c r="M11" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>11180</v>
       </c>
@@ -8920,8 +8969,11 @@
       <c r="M12" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>11260</v>
       </c>
@@ -8961,8 +9013,11 @@
       <c r="M13" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>11460</v>
       </c>
@@ -9002,8 +9057,11 @@
       <c r="M14" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>11500</v>
       </c>
@@ -9043,8 +9101,11 @@
       <c r="M15" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>11540</v>
       </c>
@@ -9084,8 +9145,11 @@
       <c r="M16" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>11700</v>
       </c>
@@ -9125,8 +9189,11 @@
       <c r="M17" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>12020</v>
       </c>
@@ -9166,8 +9233,11 @@
       <c r="M18" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>12060</v>
       </c>
@@ -9207,8 +9277,11 @@
       <c r="M19" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>12100</v>
       </c>
@@ -9248,8 +9321,11 @@
       <c r="M20" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>12220</v>
       </c>
@@ -9289,8 +9365,11 @@
       <c r="M21" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>12260</v>
       </c>
@@ -9330,8 +9409,11 @@
       <c r="M22" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>12420</v>
       </c>
@@ -9371,8 +9453,11 @@
       <c r="M23" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>12540</v>
       </c>
@@ -9412,8 +9497,11 @@
       <c r="M24" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>12580</v>
       </c>
@@ -9453,8 +9541,11 @@
       <c r="M25" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>12620</v>
       </c>
@@ -9494,8 +9585,11 @@
       <c r="M26" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>12700</v>
       </c>
@@ -9535,8 +9629,11 @@
       <c r="M27" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>12940</v>
       </c>
@@ -9576,8 +9673,11 @@
       <c r="M28" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>12980</v>
       </c>
@@ -9617,8 +9717,11 @@
       <c r="M29" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>13020</v>
       </c>
@@ -9658,8 +9761,11 @@
       <c r="M30" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>13140</v>
       </c>
@@ -9699,8 +9805,11 @@
       <c r="M31" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>13220</v>
       </c>
@@ -9740,8 +9849,11 @@
       <c r="M32" s="1">
         <v>25801</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>13380</v>
       </c>
@@ -9781,8 +9893,11 @@
       <c r="M33" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34">
         <v>13460</v>
       </c>
@@ -9822,8 +9937,11 @@
       <c r="M34" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35">
         <v>13740</v>
       </c>
@@ -9863,8 +9981,11 @@
       <c r="M35" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>13780</v>
       </c>
@@ -9904,8 +10025,11 @@
       <c r="M36" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37">
         <v>13820</v>
       </c>
@@ -9945,8 +10069,11 @@
       <c r="M37" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>13900</v>
       </c>
@@ -9986,8 +10113,11 @@
       <c r="M38" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>13980</v>
       </c>
@@ -10027,8 +10157,11 @@
       <c r="M39" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>14010</v>
       </c>
@@ -10068,8 +10201,11 @@
       <c r="M40" s="1" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41">
         <v>14020</v>
       </c>
@@ -10109,8 +10245,11 @@
       <c r="M41" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>14100</v>
       </c>
@@ -10150,8 +10289,11 @@
       <c r="M42" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43">
         <v>14260</v>
       </c>
@@ -10191,8 +10333,11 @@
       <c r="M43" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>14460</v>
       </c>
@@ -10232,8 +10377,11 @@
       <c r="M44" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45">
         <v>14500</v>
       </c>
@@ -10273,8 +10421,11 @@
       <c r="M45" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46">
         <v>14540</v>
       </c>
@@ -10314,8 +10465,11 @@
       <c r="M46" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47">
         <v>14740</v>
       </c>
@@ -10355,8 +10509,11 @@
       <c r="M47" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>14860</v>
       </c>
@@ -10396,8 +10553,11 @@
       <c r="M48" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49">
         <v>15180</v>
       </c>
@@ -10437,8 +10597,11 @@
       <c r="M49" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>15260</v>
       </c>
@@ -10478,8 +10641,11 @@
       <c r="M50" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51">
         <v>15380</v>
       </c>
@@ -10519,8 +10685,11 @@
       <c r="M51" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52">
         <v>15500</v>
       </c>
@@ -10560,8 +10729,11 @@
       <c r="M52" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53">
         <v>15540</v>
       </c>
@@ -10601,8 +10773,11 @@
       <c r="M53" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54">
         <v>15680</v>
       </c>
@@ -10642,8 +10817,11 @@
       <c r="M54" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55">
         <v>15940</v>
       </c>
@@ -10683,8 +10861,11 @@
       <c r="M55" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56">
         <v>15980</v>
       </c>
@@ -10724,8 +10905,11 @@
       <c r="M56" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57">
         <v>16020</v>
       </c>
@@ -10765,8 +10949,11 @@
       <c r="M57" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58">
         <v>16060</v>
       </c>
@@ -10806,8 +10993,11 @@
       <c r="M58" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59">
         <v>16180</v>
       </c>
@@ -10847,8 +11037,11 @@
       <c r="M59" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60">
         <v>16220</v>
       </c>
@@ -10888,8 +11081,11 @@
       <c r="M60" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61">
         <v>16300</v>
       </c>
@@ -10929,8 +11125,11 @@
       <c r="M61" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62">
         <v>16540</v>
       </c>
@@ -10970,8 +11169,11 @@
       <c r="M62" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>16580</v>
       </c>
@@ -11011,8 +11213,11 @@
       <c r="M63" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64">
         <v>16620</v>
       </c>
@@ -11052,8 +11257,11 @@
       <c r="M64" s="1" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65">
         <v>16700</v>
       </c>
@@ -11093,8 +11301,11 @@
       <c r="M65" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66">
         <v>16740</v>
       </c>
@@ -11134,8 +11345,11 @@
       <c r="M66" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67">
         <v>16820</v>
       </c>
@@ -11175,8 +11389,11 @@
       <c r="M67" s="1" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68">
         <v>16860</v>
       </c>
@@ -11216,8 +11433,11 @@
       <c r="M68" s="1" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69">
         <v>16940</v>
       </c>
@@ -11257,8 +11477,11 @@
       <c r="M69" s="1" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70">
         <v>16980</v>
       </c>
@@ -11298,8 +11521,11 @@
       <c r="M70" s="1" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71">
         <v>17020</v>
       </c>
@@ -11339,8 +11565,11 @@
       <c r="M71" s="1" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72">
         <v>17140</v>
       </c>
@@ -11380,8 +11609,11 @@
       <c r="M72" s="1" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73">
         <v>17300</v>
       </c>
@@ -11421,8 +11653,11 @@
       <c r="M73" s="1" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74">
         <v>17420</v>
       </c>
@@ -11462,8 +11697,11 @@
       <c r="M74" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75">
         <v>17460</v>
       </c>
@@ -11503,8 +11741,11 @@
       <c r="M75" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76">
         <v>17660</v>
       </c>
@@ -11544,8 +11785,11 @@
       <c r="M76" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77">
         <v>17780</v>
       </c>
@@ -11585,8 +11829,11 @@
       <c r="M77" s="1" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78">
         <v>17820</v>
       </c>
@@ -11626,8 +11873,11 @@
       <c r="M78" s="1" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79">
         <v>17860</v>
       </c>
@@ -11667,8 +11917,11 @@
       <c r="M79" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80">
         <v>17900</v>
       </c>
@@ -11708,8 +11961,11 @@
       <c r="M80" s="1" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81">
         <v>17980</v>
       </c>
@@ -11749,8 +12005,11 @@
       <c r="M81" s="1" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82">
         <v>18020</v>
       </c>
@@ -11790,8 +12049,11 @@
       <c r="M82" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83">
         <v>18140</v>
       </c>
@@ -11831,8 +12093,11 @@
       <c r="M83" s="1" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84">
         <v>18580</v>
       </c>
@@ -11872,8 +12137,11 @@
       <c r="M84" s="1" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N84" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85">
         <v>18700</v>
       </c>
@@ -11913,8 +12181,11 @@
       <c r="M85" s="1" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86">
         <v>18880</v>
       </c>
@@ -11954,8 +12225,11 @@
       <c r="M86" s="1" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87">
         <v>19060</v>
       </c>
@@ -11995,8 +12269,11 @@
       <c r="M87" s="1" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88">
         <v>19100</v>
       </c>
@@ -12036,8 +12313,11 @@
       <c r="M88" s="1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89">
         <v>19140</v>
       </c>
@@ -12077,8 +12357,11 @@
       <c r="M89" s="1" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90">
         <v>19180</v>
       </c>
@@ -12118,8 +12401,11 @@
       <c r="M90" s="1" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N90" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91">
         <v>19300</v>
       </c>
@@ -12159,8 +12445,11 @@
       <c r="M91" s="1" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92">
         <v>19340</v>
       </c>
@@ -12200,8 +12489,11 @@
       <c r="M92" s="1" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93">
         <v>19430</v>
       </c>
@@ -12241,8 +12533,11 @@
       <c r="M93" s="1" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N93" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94">
         <v>19460</v>
       </c>
@@ -12282,8 +12577,11 @@
       <c r="M94" s="1" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95">
         <v>19500</v>
       </c>
@@ -12323,8 +12621,11 @@
       <c r="M95" s="1" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N95" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96">
         <v>19660</v>
       </c>
@@ -12364,8 +12665,11 @@
       <c r="M96" s="1" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97">
         <v>19740</v>
       </c>
@@ -12405,8 +12709,11 @@
       <c r="M97" s="1" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98">
         <v>19780</v>
       </c>
@@ -12446,8 +12753,11 @@
       <c r="M98" s="1" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N98" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99">
         <v>19820</v>
       </c>
@@ -12487,8 +12797,11 @@
       <c r="M99" s="1" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N99" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100">
         <v>20020</v>
       </c>
@@ -12528,8 +12841,11 @@
       <c r="M100" s="1" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N100" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101">
         <v>20100</v>
       </c>
@@ -12569,8 +12885,11 @@
       <c r="M101" s="1" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N101" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102">
         <v>20220</v>
       </c>
@@ -12610,8 +12929,11 @@
       <c r="M102" s="1" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N102" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103">
         <v>20260</v>
       </c>
@@ -12651,8 +12973,11 @@
       <c r="M103" s="1" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N103" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104">
         <v>20500</v>
       </c>
@@ -12692,8 +13017,11 @@
       <c r="M104" s="1" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N104" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105">
         <v>20700</v>
       </c>
@@ -12733,8 +13061,11 @@
       <c r="M105" s="1">
         <v>18301</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N105" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106">
         <v>20740</v>
       </c>
@@ -12774,8 +13105,11 @@
       <c r="M106" s="1" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N106" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107">
         <v>20940</v>
       </c>
@@ -12815,8 +13149,11 @@
       <c r="M107" s="1" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N107" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108">
         <v>21060</v>
       </c>
@@ -12856,8 +13193,11 @@
       <c r="M108" s="1" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N108" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109">
         <v>21140</v>
       </c>
@@ -12897,8 +13237,11 @@
       <c r="M109" s="1" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N109" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110">
         <v>21300</v>
       </c>
@@ -12938,8 +13281,11 @@
       <c r="M110" s="1" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N110" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111">
         <v>21340</v>
       </c>
@@ -12979,8 +13325,11 @@
       <c r="M111" s="1" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N111" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112">
         <v>21420</v>
       </c>
@@ -13020,8 +13369,11 @@
       <c r="M112" s="1" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N112" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113">
         <v>21500</v>
       </c>
@@ -13061,8 +13413,11 @@
       <c r="M113" s="1" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N113" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114">
         <v>21660</v>
       </c>
@@ -13102,8 +13457,11 @@
       <c r="M114" s="1" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N114" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115">
         <v>21780</v>
       </c>
@@ -13143,8 +13501,11 @@
       <c r="M115" s="1" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N115" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116">
         <v>21820</v>
       </c>
@@ -13184,8 +13545,11 @@
       <c r="M116" s="1" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N116" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117">
         <v>22020</v>
       </c>
@@ -13225,8 +13589,11 @@
       <c r="M117" s="1" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N117" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118">
         <v>22140</v>
       </c>
@@ -13266,8 +13633,11 @@
       <c r="M118" s="1" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N118" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119">
         <v>22180</v>
       </c>
@@ -13307,8 +13677,11 @@
       <c r="M119" s="1" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N119" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120">
         <v>22220</v>
       </c>
@@ -13348,8 +13721,11 @@
       <c r="M120" s="1" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N120" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121">
         <v>22380</v>
       </c>
@@ -13389,8 +13765,11 @@
       <c r="M121" s="1" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N121" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122">
         <v>22420</v>
       </c>
@@ -13430,8 +13809,11 @@
       <c r="M122" s="1" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N122" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123">
         <v>22500</v>
       </c>
@@ -13471,8 +13853,11 @@
       <c r="M123" s="1" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N123" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124">
         <v>22520</v>
       </c>
@@ -13512,8 +13897,11 @@
       <c r="M124" s="1" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N124" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125">
         <v>22540</v>
       </c>
@@ -13553,8 +13941,11 @@
       <c r="M125" s="1" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N125" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126">
         <v>22660</v>
       </c>
@@ -13594,8 +13985,11 @@
       <c r="M126" s="1" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N126" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127">
         <v>22900</v>
       </c>
@@ -13635,8 +14029,11 @@
       <c r="M127" s="1" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N127" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128">
         <v>23060</v>
       </c>
@@ -13676,8 +14073,11 @@
       <c r="M128" s="1" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N128" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129">
         <v>23420</v>
       </c>
@@ -13717,8 +14117,11 @@
       <c r="M129" s="1" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N129" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
       <c r="A130">
         <v>23460</v>
       </c>
@@ -13758,8 +14161,11 @@
       <c r="M130" s="1" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N130" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
       <c r="A131">
         <v>23540</v>
       </c>
@@ -13799,8 +14205,11 @@
       <c r="M131" s="1" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N131" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132">
         <v>23580</v>
       </c>
@@ -13840,8 +14249,11 @@
       <c r="M132" s="1" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N132" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133">
         <v>23900</v>
       </c>
@@ -13881,8 +14293,11 @@
       <c r="M133" s="1">
         <v>17325</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N133" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134">
         <v>24020</v>
       </c>
@@ -13922,8 +14337,11 @@
       <c r="M134" s="1">
         <v>12801</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N134" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135">
         <v>24140</v>
       </c>
@@ -13963,8 +14381,11 @@
       <c r="M135" s="1" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N135" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
       <c r="A136">
         <v>24220</v>
       </c>
@@ -14004,8 +14425,11 @@
       <c r="M136" s="1" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N136" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
       <c r="A137">
         <v>24260</v>
       </c>
@@ -14045,8 +14469,11 @@
       <c r="M137" s="1" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N137" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
       <c r="A138">
         <v>24300</v>
       </c>
@@ -14086,8 +14513,11 @@
       <c r="M138" s="1" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N138" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
       <c r="A139">
         <v>24340</v>
       </c>
@@ -14127,8 +14557,11 @@
       <c r="M139" s="1" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N139" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140">
         <v>24420</v>
       </c>
@@ -14168,8 +14601,11 @@
       <c r="M140" s="1" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N140" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141">
         <v>24500</v>
       </c>
@@ -14209,8 +14645,11 @@
       <c r="M141" s="1" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N141" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
       <c r="A142">
         <v>24540</v>
       </c>
@@ -14250,8 +14689,11 @@
       <c r="M142" s="1" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N142" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143">
         <v>24580</v>
       </c>
@@ -14291,8 +14733,11 @@
       <c r="M143" s="1" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N143" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144">
         <v>24660</v>
       </c>
@@ -14332,8 +14777,11 @@
       <c r="M144" s="1" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N144" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145">
         <v>24780</v>
       </c>
@@ -14373,8 +14821,11 @@
       <c r="M145" s="1" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N145" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
       <c r="A146">
         <v>24860</v>
       </c>
@@ -14414,8 +14865,11 @@
       <c r="M146" s="1" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N146" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
       <c r="A147">
         <v>25060</v>
       </c>
@@ -14455,8 +14909,11 @@
       <c r="M147" s="1" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N147" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
       <c r="A148">
         <v>25180</v>
       </c>
@@ -14496,8 +14953,11 @@
       <c r="M148" s="1" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N148" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
       <c r="A149">
         <v>25220</v>
       </c>
@@ -14537,8 +14997,11 @@
       <c r="M149" s="1" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N149" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
       <c r="A150">
         <v>25260</v>
       </c>
@@ -14578,8 +15041,11 @@
       <c r="M150" s="1" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N150" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
       <c r="A151">
         <v>25420</v>
       </c>
@@ -14619,8 +15085,11 @@
       <c r="M151" s="1" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N151" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
       <c r="A152">
         <v>25500</v>
       </c>
@@ -14660,8 +15129,11 @@
       <c r="M152" s="1" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N152" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
       <c r="A153">
         <v>25540</v>
       </c>
@@ -14701,8 +15173,11 @@
       <c r="M153" s="1" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N153" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
       <c r="A154">
         <v>25620</v>
       </c>
@@ -14742,8 +15217,11 @@
       <c r="M154" s="1" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N154" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
       <c r="A155">
         <v>25860</v>
       </c>
@@ -14783,8 +15261,11 @@
       <c r="M155" s="1" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N155" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
       <c r="A156">
         <v>25940</v>
       </c>
@@ -14824,8 +15305,11 @@
       <c r="M156" s="1" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N156" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
       <c r="A157">
         <v>25980</v>
       </c>
@@ -14865,8 +15349,11 @@
       <c r="M157" s="1" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N157" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
       <c r="A158">
         <v>26140</v>
       </c>
@@ -14906,8 +15393,11 @@
       <c r="M158" s="1" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N158" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
       <c r="A159">
         <v>26300</v>
       </c>
@@ -14947,8 +15437,11 @@
       <c r="M159" s="1" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N159" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
       <c r="A160">
         <v>26380</v>
       </c>
@@ -14988,8 +15481,11 @@
       <c r="M160" s="1" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N160" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
       <c r="A161">
         <v>26420</v>
       </c>
@@ -15029,8 +15525,11 @@
       <c r="M161" s="1" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N161" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
       <c r="A162">
         <v>26580</v>
       </c>
@@ -15070,8 +15569,11 @@
       <c r="M162" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N162" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
       <c r="A163">
         <v>26620</v>
       </c>
@@ -15111,8 +15613,11 @@
       <c r="M163" s="1" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N163" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
       <c r="A164">
         <v>26820</v>
       </c>
@@ -15152,8 +15657,11 @@
       <c r="M164" s="1" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N164" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
       <c r="A165">
         <v>26900</v>
       </c>
@@ -15193,8 +15701,11 @@
       <c r="M165" s="1" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N165" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
       <c r="A166">
         <v>26980</v>
       </c>
@@ -15234,8 +15745,11 @@
       <c r="M166" s="1" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N166" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
       <c r="A167">
         <v>27060</v>
       </c>
@@ -15275,8 +15789,11 @@
       <c r="M167" s="1" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N167" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
       <c r="A168">
         <v>27100</v>
       </c>
@@ -15316,8 +15833,11 @@
       <c r="M168" s="1" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N168" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
       <c r="A169">
         <v>27140</v>
       </c>
@@ -15357,8 +15877,11 @@
       <c r="M169" s="1" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N169" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
       <c r="A170">
         <v>27180</v>
       </c>
@@ -15398,8 +15921,11 @@
       <c r="M170" s="1" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N170" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
       <c r="A171">
         <v>27260</v>
       </c>
@@ -15439,8 +15965,11 @@
       <c r="M171" s="1" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N171" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
       <c r="A172">
         <v>27340</v>
       </c>
@@ -15480,8 +16009,11 @@
       <c r="M172" s="1" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N172" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
       <c r="A173">
         <v>27500</v>
       </c>
@@ -15521,8 +16053,11 @@
       <c r="M173" s="1" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N173" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
       <c r="A174">
         <v>27620</v>
       </c>
@@ -15562,8 +16097,11 @@
       <c r="M174" s="1" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N174" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175">
         <v>27740</v>
       </c>
@@ -15603,8 +16141,11 @@
       <c r="M175" s="1" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N175" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
       <c r="A176">
         <v>27780</v>
       </c>
@@ -15644,8 +16185,11 @@
       <c r="M176" s="1" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N176" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
       <c r="A177">
         <v>27860</v>
       </c>
@@ -15685,8 +16229,11 @@
       <c r="M177" s="1" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N177" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
       <c r="A178">
         <v>27900</v>
       </c>
@@ -15726,8 +16273,11 @@
       <c r="M178" s="1" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N178" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
       <c r="A179">
         <v>27980</v>
       </c>
@@ -15767,8 +16317,11 @@
       <c r="M179" s="1" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N179" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14">
       <c r="A180">
         <v>28020</v>
       </c>
@@ -15808,8 +16361,11 @@
       <c r="M180" s="1" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N180" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
       <c r="A181">
         <v>28100</v>
       </c>
@@ -15849,8 +16405,11 @@
       <c r="M181" s="1">
         <v>60901</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N181" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14">
       <c r="A182">
         <v>28140</v>
       </c>
@@ -15890,8 +16449,11 @@
       <c r="M182" s="1" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N182" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14">
       <c r="A183">
         <v>28420</v>
       </c>
@@ -15931,8 +16493,11 @@
       <c r="M183" s="1" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N183" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14">
       <c r="A184">
         <v>28660</v>
       </c>
@@ -15972,8 +16537,11 @@
       <c r="M184" s="1" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N184" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14">
       <c r="A185">
         <v>28700</v>
       </c>
@@ -16013,8 +16581,11 @@
       <c r="M185" s="1" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N185" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14">
       <c r="A186">
         <v>28740</v>
       </c>
@@ -16054,8 +16625,11 @@
       <c r="M186" s="1" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N186" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14">
       <c r="A187">
         <v>28940</v>
       </c>
@@ -16095,8 +16669,11 @@
       <c r="M187" s="1" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N187" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14">
       <c r="A188">
         <v>29020</v>
       </c>
@@ -16136,8 +16713,11 @@
       <c r="M188" s="1" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N188" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
       <c r="A189">
         <v>29100</v>
       </c>
@@ -16177,8 +16757,11 @@
       <c r="M189" s="1" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N189" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14">
       <c r="A190">
         <v>29180</v>
       </c>
@@ -16218,8 +16801,11 @@
       <c r="M190" s="1" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N190" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14">
       <c r="A191">
         <v>29200</v>
       </c>
@@ -16259,8 +16845,11 @@
       <c r="M191" s="1" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N191" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14">
       <c r="A192">
         <v>29340</v>
       </c>
@@ -16300,8 +16889,11 @@
       <c r="M192" s="1" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N192" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14">
       <c r="A193">
         <v>29420</v>
       </c>
@@ -16341,8 +16933,11 @@
       <c r="M193" s="1" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N193" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14">
       <c r="A194">
         <v>29460</v>
       </c>
@@ -16382,8 +16977,11 @@
       <c r="M194" s="1" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N194" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14">
       <c r="A195">
         <v>29540</v>
       </c>
@@ -16423,8 +17021,11 @@
       <c r="M195" s="1" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N195" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14">
       <c r="A196">
         <v>29620</v>
       </c>
@@ -16464,8 +17065,11 @@
       <c r="M196" s="1" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N196" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14">
       <c r="A197">
         <v>29700</v>
       </c>
@@ -16505,8 +17109,11 @@
       <c r="M197" s="1" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N197" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14">
       <c r="A198">
         <v>29740</v>
       </c>
@@ -16546,8 +17153,11 @@
       <c r="M198" s="1" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N198" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14">
       <c r="A199">
         <v>29820</v>
       </c>
@@ -16587,8 +17197,11 @@
       <c r="M199" s="1" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N199" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14">
       <c r="A200">
         <v>29940</v>
       </c>
@@ -16628,8 +17241,11 @@
       <c r="M200" s="1" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N200" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14">
       <c r="A201">
         <v>30020</v>
       </c>
@@ -16669,8 +17285,11 @@
       <c r="M201" s="1" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N201" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14">
       <c r="A202">
         <v>30140</v>
       </c>
@@ -16710,8 +17329,11 @@
       <c r="M202" s="1" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N202" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14">
       <c r="A203">
         <v>30300</v>
       </c>
@@ -16751,8 +17373,11 @@
       <c r="M203" s="1">
         <v>83501</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N203" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14">
       <c r="A204">
         <v>30340</v>
       </c>
@@ -16792,8 +17417,11 @@
       <c r="M204" s="1" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N204" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14">
       <c r="A205">
         <v>30460</v>
       </c>
@@ -16833,8 +17461,11 @@
       <c r="M205" s="1" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N205" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14">
       <c r="A206">
         <v>30620</v>
       </c>
@@ -16874,8 +17505,11 @@
       <c r="M206" s="1" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N206" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14">
       <c r="A207">
         <v>30700</v>
       </c>
@@ -16915,8 +17549,11 @@
       <c r="M207" s="1" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N207" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14">
       <c r="A208">
         <v>30780</v>
       </c>
@@ -16956,8 +17593,11 @@
       <c r="M208" s="1" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N208" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14">
       <c r="A209">
         <v>30860</v>
       </c>
@@ -16997,8 +17637,11 @@
       <c r="M209" s="1" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N209" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14">
       <c r="A210">
         <v>30980</v>
       </c>
@@ -17038,8 +17681,11 @@
       <c r="M210" s="1" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N210" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14">
       <c r="A211">
         <v>31020</v>
       </c>
@@ -17079,8 +17725,11 @@
       <c r="M211" s="1">
         <v>98632</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N211" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14">
       <c r="A212">
         <v>31080</v>
       </c>
@@ -17120,8 +17769,11 @@
       <c r="M212" s="1" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N212" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14">
       <c r="A213">
         <v>31140</v>
       </c>
@@ -17161,8 +17813,11 @@
       <c r="M213" s="1" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N213" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14">
       <c r="A214">
         <v>31180</v>
       </c>
@@ -17202,8 +17857,11 @@
       <c r="M214" s="1" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N214" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14">
       <c r="A215">
         <v>31340</v>
       </c>
@@ -17243,8 +17901,11 @@
       <c r="M215" s="1" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N215" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14">
       <c r="A216">
         <v>31420</v>
       </c>
@@ -17284,8 +17945,11 @@
       <c r="M216" s="1" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N216" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14">
       <c r="A217">
         <v>31460</v>
       </c>
@@ -17325,8 +17989,11 @@
       <c r="M217" s="1" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N217" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14">
       <c r="A218">
         <v>31540</v>
       </c>
@@ -17366,8 +18033,11 @@
       <c r="M218" s="1" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N218" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14">
       <c r="A219">
         <v>31700</v>
       </c>
@@ -17407,8 +18077,11 @@
       <c r="M219" s="1" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N219" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14">
       <c r="A220">
         <v>31740</v>
       </c>
@@ -17448,8 +18121,11 @@
       <c r="M220" s="1" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N220" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14">
       <c r="A221">
         <v>31860</v>
       </c>
@@ -17489,8 +18165,11 @@
       <c r="M221" s="1" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N221" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14">
       <c r="A222">
         <v>31900</v>
       </c>
@@ -17530,8 +18209,11 @@
       <c r="M222" s="1" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N222" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14">
       <c r="A223">
         <v>32580</v>
       </c>
@@ -17571,8 +18253,11 @@
       <c r="M223" s="1" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N223" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14">
       <c r="A224">
         <v>32780</v>
       </c>
@@ -17612,8 +18297,11 @@
       <c r="M224" s="1" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N224" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14">
       <c r="A225">
         <v>32820</v>
       </c>
@@ -17653,8 +18341,11 @@
       <c r="M225" s="1" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N225" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14">
       <c r="A226">
         <v>32900</v>
       </c>
@@ -17694,8 +18385,11 @@
       <c r="M226" s="1" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N226" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14">
       <c r="A227">
         <v>33100</v>
       </c>
@@ -17735,8 +18429,11 @@
       <c r="M227" s="1" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N227" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14">
       <c r="A228">
         <v>33140</v>
       </c>
@@ -17776,8 +18473,11 @@
       <c r="M228" s="1" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N228" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14">
       <c r="A229">
         <v>33220</v>
       </c>
@@ -17817,8 +18517,11 @@
       <c r="M229" s="1" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N229" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14">
       <c r="A230">
         <v>33260</v>
       </c>
@@ -17858,8 +18561,11 @@
       <c r="M230" s="1" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N230" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14">
       <c r="A231">
         <v>33340</v>
       </c>
@@ -17899,8 +18605,11 @@
       <c r="M231" s="1" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N231" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14">
       <c r="A232">
         <v>33460</v>
       </c>
@@ -17940,8 +18649,11 @@
       <c r="M232" s="1" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N232" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14">
       <c r="A233">
         <v>33540</v>
       </c>
@@ -17981,8 +18693,11 @@
       <c r="M233" s="1" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N233" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14">
       <c r="A234">
         <v>33660</v>
       </c>
@@ -18022,8 +18737,11 @@
       <c r="M234" s="1" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N234" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14">
       <c r="A235">
         <v>33700</v>
       </c>
@@ -18063,8 +18781,11 @@
       <c r="M235" s="1" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N235" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14">
       <c r="A236">
         <v>33740</v>
       </c>
@@ -18104,8 +18825,11 @@
       <c r="M236" s="1" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N236" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14">
       <c r="A237">
         <v>33780</v>
       </c>
@@ -18145,8 +18869,11 @@
       <c r="M237" s="1" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N237" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14">
       <c r="A238">
         <v>33860</v>
       </c>
@@ -18186,8 +18913,11 @@
       <c r="M238" s="1" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N238" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14">
       <c r="A239">
         <v>34060</v>
       </c>
@@ -18227,8 +18957,11 @@
       <c r="M239" s="1" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N239" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14">
       <c r="A240">
         <v>34100</v>
       </c>
@@ -18268,8 +19001,11 @@
       <c r="M240" s="1" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N240" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14">
       <c r="A241">
         <v>34580</v>
       </c>
@@ -18309,8 +19045,11 @@
       <c r="M241" s="1" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N241" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14">
       <c r="A242">
         <v>34620</v>
       </c>
@@ -18350,8 +19089,11 @@
       <c r="M242" s="1" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N242" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14">
       <c r="A243">
         <v>34740</v>
       </c>
@@ -18391,8 +19133,11 @@
       <c r="M243" s="1" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N243" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14">
       <c r="A244">
         <v>34820</v>
       </c>
@@ -18432,8 +19177,11 @@
       <c r="M244" s="1" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N244" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14">
       <c r="A245">
         <v>34900</v>
       </c>
@@ -18473,8 +19221,11 @@
       <c r="M245" s="1" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N245" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14">
       <c r="A246">
         <v>34940</v>
       </c>
@@ -18514,8 +19265,11 @@
       <c r="M246" s="1" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N246" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14">
       <c r="A247">
         <v>34980</v>
       </c>
@@ -18555,8 +19309,11 @@
       <c r="M247" s="1" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N247" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14">
       <c r="A248">
         <v>35100</v>
       </c>
@@ -18596,8 +19353,11 @@
       <c r="M248" s="1" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N248" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14">
       <c r="A249">
         <v>35300</v>
       </c>
@@ -18637,8 +19397,11 @@
       <c r="M249" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N249" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14">
       <c r="A250">
         <v>35380</v>
       </c>
@@ -18678,8 +19441,11 @@
       <c r="M250" s="1" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N250" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14">
       <c r="A251">
         <v>35620</v>
       </c>
@@ -18719,8 +19485,11 @@
       <c r="M251" s="1" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N251" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14">
       <c r="A252">
         <v>35660</v>
       </c>
@@ -18760,8 +19529,11 @@
       <c r="M252" s="1">
         <v>49120</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N252" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14">
       <c r="A253">
         <v>35840</v>
       </c>
@@ -18801,8 +19573,11 @@
       <c r="M253" s="1" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N253" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14">
       <c r="A254">
         <v>35980</v>
       </c>
@@ -18842,8 +19617,11 @@
       <c r="M254" s="1" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N254" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14">
       <c r="A255">
         <v>36100</v>
       </c>
@@ -18883,8 +19661,11 @@
       <c r="M255" s="1" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N255" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14">
       <c r="A256">
         <v>36140</v>
       </c>
@@ -18924,8 +19705,11 @@
       <c r="M256" s="1" t="s">
         <v>2512</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N256" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14">
       <c r="A257">
         <v>36220</v>
       </c>
@@ -18965,8 +19749,11 @@
       <c r="M257" s="1" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N257" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14">
       <c r="A258">
         <v>36260</v>
       </c>
@@ -19006,8 +19793,11 @@
       <c r="M258" s="1" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N258" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14">
       <c r="A259">
         <v>36420</v>
       </c>
@@ -19047,8 +19837,11 @@
       <c r="M259" s="1" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N259" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14">
       <c r="A260">
         <v>36500</v>
       </c>
@@ -19088,8 +19881,11 @@
       <c r="M260" s="1" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N260" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14">
       <c r="A261">
         <v>36540</v>
       </c>
@@ -19129,8 +19925,11 @@
       <c r="M261" s="1" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N261" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14">
       <c r="A262">
         <v>36740</v>
       </c>
@@ -19170,8 +19969,11 @@
       <c r="M262" s="1" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N262" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14">
       <c r="A263">
         <v>36780</v>
       </c>
@@ -19211,8 +20013,11 @@
       <c r="M263" s="1" t="s">
         <v>1449</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N263" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14">
       <c r="A264">
         <v>36980</v>
       </c>
@@ -19252,8 +20057,11 @@
       <c r="M264" s="1" t="s">
         <v>1455</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N264" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14">
       <c r="A265">
         <v>37100</v>
       </c>
@@ -19293,8 +20101,11 @@
       <c r="M265" s="1" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N265" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14">
       <c r="A266">
         <v>37340</v>
       </c>
@@ -19334,8 +20145,11 @@
       <c r="M266" s="1" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N266" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14">
       <c r="A267">
         <v>37460</v>
       </c>
@@ -19375,8 +20189,11 @@
       <c r="M267" s="1" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N267" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14">
       <c r="A268">
         <v>37620</v>
       </c>
@@ -19416,8 +20233,11 @@
       <c r="M268" s="1" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N268" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14">
       <c r="A269">
         <v>37860</v>
       </c>
@@ -19457,8 +20277,11 @@
       <c r="M269" s="1" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N269" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14">
       <c r="A270">
         <v>37900</v>
       </c>
@@ -19498,8 +20321,11 @@
       <c r="M270" s="1" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N270" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14">
       <c r="A271">
         <v>37980</v>
       </c>
@@ -19539,8 +20365,11 @@
       <c r="M271" s="1" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N271" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14">
       <c r="A272">
         <v>38060</v>
       </c>
@@ -19580,8 +20409,11 @@
       <c r="M272" s="1" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N272" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14">
       <c r="A273">
         <v>38220</v>
       </c>
@@ -19621,8 +20453,11 @@
       <c r="M273" s="1" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N273" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14">
       <c r="A274">
         <v>38300</v>
       </c>
@@ -19662,8 +20497,11 @@
       <c r="M274" s="1" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N274" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14">
       <c r="A275">
         <v>38340</v>
       </c>
@@ -19703,8 +20541,11 @@
       <c r="M275" s="1" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N275" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14">
       <c r="A276">
         <v>38540</v>
       </c>
@@ -19744,8 +20585,11 @@
       <c r="M276" s="1" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N276" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14">
       <c r="A277">
         <v>38860</v>
       </c>
@@ -19785,8 +20629,11 @@
       <c r="M277" s="1" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N277" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14">
       <c r="A278">
         <v>38900</v>
       </c>
@@ -19826,8 +20673,11 @@
       <c r="M278" s="1" t="s">
         <v>1528</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N278" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14">
       <c r="A279">
         <v>38940</v>
       </c>
@@ -19867,8 +20717,11 @@
       <c r="M279" s="1" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N279" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14">
       <c r="A280">
         <v>39100</v>
       </c>
@@ -19908,8 +20761,11 @@
       <c r="M280" s="1" t="s">
         <v>1540</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N280" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14">
       <c r="A281">
         <v>39150</v>
       </c>
@@ -19949,8 +20805,11 @@
       <c r="M281" s="1" t="s">
         <v>1545</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N281" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14">
       <c r="A282">
         <v>39300</v>
       </c>
@@ -19990,8 +20849,11 @@
       <c r="M282" s="1" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N282" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14">
       <c r="A283">
         <v>39340</v>
       </c>
@@ -20031,8 +20893,11 @@
       <c r="M283" s="1" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N283" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14">
       <c r="A284">
         <v>39380</v>
       </c>
@@ -20072,8 +20937,11 @@
       <c r="M284" s="1" t="s">
         <v>1561</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N284" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14">
       <c r="A285">
         <v>39460</v>
       </c>
@@ -20113,8 +20981,11 @@
       <c r="M285" s="1">
         <v>33950</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N285" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14">
       <c r="A286">
         <v>39540</v>
       </c>
@@ -20154,8 +21025,11 @@
       <c r="M286" s="1" t="s">
         <v>1568</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N286" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14">
       <c r="A287">
         <v>39580</v>
       </c>
@@ -20195,8 +21069,11 @@
       <c r="M287" s="1" t="s">
         <v>1573</v>
       </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N287" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14">
       <c r="A288">
         <v>39660</v>
       </c>
@@ -20236,8 +21113,11 @@
       <c r="M288" s="1" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N288" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14">
       <c r="A289">
         <v>39740</v>
       </c>
@@ -20277,8 +21157,11 @@
       <c r="M289" s="1" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N289" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14">
       <c r="A290">
         <v>39820</v>
       </c>
@@ -20318,8 +21201,11 @@
       <c r="M290" s="1" t="s">
         <v>1591</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N290" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14">
       <c r="A291">
         <v>39900</v>
       </c>
@@ -20359,8 +21245,11 @@
       <c r="M291" s="1" t="s">
         <v>1597</v>
       </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N291" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14">
       <c r="A292">
         <v>40060</v>
       </c>
@@ -20400,8 +21289,11 @@
       <c r="M292" s="1" t="s">
         <v>1601</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N292" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14">
       <c r="A293">
         <v>40140</v>
       </c>
@@ -20441,8 +21333,11 @@
       <c r="M293" s="1" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N293" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14">
       <c r="A294">
         <v>40220</v>
       </c>
@@ -20482,8 +21377,11 @@
       <c r="M294" s="1" t="s">
         <v>1611</v>
       </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N294" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14">
       <c r="A295">
         <v>40340</v>
       </c>
@@ -20523,8 +21421,11 @@
       <c r="M295" s="1" t="s">
         <v>1617</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N295" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14">
       <c r="A296">
         <v>40380</v>
       </c>
@@ -20564,8 +21465,11 @@
       <c r="M296" s="1" t="s">
         <v>1621</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N296" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14">
       <c r="A297">
         <v>40420</v>
       </c>
@@ -20605,8 +21509,11 @@
       <c r="M297" s="1" t="s">
         <v>1626</v>
       </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N297" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14">
       <c r="A298">
         <v>40580</v>
       </c>
@@ -20646,8 +21553,11 @@
       <c r="M298" s="1" t="s">
         <v>1632</v>
       </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N298" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14">
       <c r="A299">
         <v>40660</v>
       </c>
@@ -20687,8 +21597,11 @@
       <c r="M299" s="1" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N299" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14">
       <c r="A300">
         <v>40900</v>
       </c>
@@ -20728,8 +21641,11 @@
       <c r="M300" s="1" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N300" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14">
       <c r="A301">
         <v>40980</v>
       </c>
@@ -20769,8 +21685,11 @@
       <c r="M301" s="1" t="s">
         <v>1646</v>
       </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N301" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14">
       <c r="A302">
         <v>41060</v>
       </c>
@@ -20810,8 +21729,11 @@
       <c r="M302" s="1" t="s">
         <v>1652</v>
       </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N302" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14">
       <c r="A303">
         <v>41100</v>
       </c>
@@ -20851,8 +21773,11 @@
       <c r="M303" s="1" t="s">
         <v>1656</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N303" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14">
       <c r="A304">
         <v>41140</v>
       </c>
@@ -20892,8 +21817,11 @@
       <c r="M304" s="1" t="s">
         <v>1662</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N304" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14">
       <c r="A305">
         <v>41180</v>
       </c>
@@ -20933,8 +21861,11 @@
       <c r="M305" s="1" t="s">
         <v>1666</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N305" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14">
       <c r="A306">
         <v>41420</v>
       </c>
@@ -20974,8 +21905,11 @@
       <c r="M306" s="1" t="s">
         <v>1671</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N306" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14">
       <c r="A307">
         <v>41500</v>
       </c>
@@ -21015,8 +21949,11 @@
       <c r="M307" s="1" t="s">
         <v>1676</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N307" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14">
       <c r="A308">
         <v>41540</v>
       </c>
@@ -21056,8 +21993,11 @@
       <c r="M308" s="1" t="s">
         <v>1682</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N308" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14">
       <c r="A309">
         <v>41620</v>
       </c>
@@ -21097,8 +22037,11 @@
       <c r="M309" s="1" t="s">
         <v>1688</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N309" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14">
       <c r="A310">
         <v>41660</v>
       </c>
@@ -21138,8 +22081,11 @@
       <c r="M310" s="1" t="s">
         <v>1694</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N310" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14">
       <c r="A311">
         <v>41700</v>
       </c>
@@ -21179,8 +22125,11 @@
       <c r="M311" s="1" t="s">
         <v>1700</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N311" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14">
       <c r="A312">
         <v>41740</v>
       </c>
@@ -21220,8 +22169,11 @@
       <c r="M312" s="1" t="s">
         <v>1704</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N312" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14">
       <c r="A313">
         <v>41860</v>
       </c>
@@ -21261,8 +22213,11 @@
       <c r="M313" s="1" t="s">
         <v>1709</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N313" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14">
       <c r="A314">
         <v>41940</v>
       </c>
@@ -21302,8 +22257,11 @@
       <c r="M314" s="1" t="s">
         <v>1715</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N314" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14">
       <c r="A315">
         <v>42020</v>
       </c>
@@ -21343,8 +22301,11 @@
       <c r="M315" s="1" t="s">
         <v>1719</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N315" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14">
       <c r="A316">
         <v>42100</v>
       </c>
@@ -21384,8 +22345,11 @@
       <c r="M316" s="1" t="s">
         <v>1723</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N316" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14">
       <c r="A317">
         <v>42140</v>
       </c>
@@ -21425,8 +22389,11 @@
       <c r="M317" s="1" t="s">
         <v>1727</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N317" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14">
       <c r="A318">
         <v>42200</v>
       </c>
@@ -21466,8 +22433,11 @@
       <c r="M318" s="1" t="s">
         <v>1732</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N318" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14">
       <c r="A319">
         <v>42220</v>
       </c>
@@ -21507,8 +22477,11 @@
       <c r="M319" s="1" t="s">
         <v>1737</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N319" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14">
       <c r="A320">
         <v>42340</v>
       </c>
@@ -21548,8 +22521,11 @@
       <c r="M320" s="1" t="s">
         <v>1743</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N320" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14">
       <c r="A321">
         <v>42540</v>
       </c>
@@ -21589,8 +22565,11 @@
       <c r="M321" s="1" t="s">
         <v>1749</v>
       </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N321" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14">
       <c r="A322">
         <v>42660</v>
       </c>
@@ -21630,8 +22609,11 @@
       <c r="M322" s="1" t="s">
         <v>1755</v>
       </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N322" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14">
       <c r="A323">
         <v>42680</v>
       </c>
@@ -21671,8 +22653,11 @@
       <c r="M323" s="1" t="s">
         <v>1759</v>
       </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N323" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14">
       <c r="A324">
         <v>42700</v>
       </c>
@@ -21712,8 +22697,11 @@
       <c r="M324" s="1" t="s">
         <v>1764</v>
       </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N324" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14">
       <c r="A325">
         <v>43100</v>
       </c>
@@ -21753,8 +22741,11 @@
       <c r="M325" s="1" t="s">
         <v>1768</v>
       </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N325" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14">
       <c r="A326">
         <v>43300</v>
       </c>
@@ -21794,8 +22785,11 @@
       <c r="M326" s="1" t="s">
         <v>1773</v>
       </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N326" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14">
       <c r="A327">
         <v>43340</v>
       </c>
@@ -21835,8 +22829,11 @@
       <c r="M327" s="1" t="s">
         <v>1779</v>
       </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N327" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14">
       <c r="A328">
         <v>43420</v>
       </c>
@@ -21876,8 +22873,11 @@
       <c r="M328" s="1" t="s">
         <v>1784</v>
       </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N328" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14">
       <c r="A329">
         <v>43580</v>
       </c>
@@ -21917,8 +22917,11 @@
       <c r="M329" s="1" t="s">
         <v>1790</v>
       </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N329" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14">
       <c r="A330">
         <v>43620</v>
       </c>
@@ -21958,8 +22961,11 @@
       <c r="M330" s="1" t="s">
         <v>1796</v>
       </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N330" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14">
       <c r="A331">
         <v>43780</v>
       </c>
@@ -21999,8 +23005,11 @@
       <c r="M331" s="1" t="s">
         <v>1801</v>
       </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N331" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14">
       <c r="A332">
         <v>43900</v>
       </c>
@@ -22040,8 +23049,11 @@
       <c r="M332" s="1" t="s">
         <v>1805</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N332" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14">
       <c r="A333">
         <v>44060</v>
       </c>
@@ -22081,8 +23093,11 @@
       <c r="M333" s="1" t="s">
         <v>1810</v>
       </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N333" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14">
       <c r="A334">
         <v>44100</v>
       </c>
@@ -22122,8 +23137,11 @@
       <c r="M334" s="1" t="s">
         <v>1816</v>
       </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N334" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14">
       <c r="A335">
         <v>44140</v>
       </c>
@@ -22163,8 +23181,11 @@
       <c r="M335" s="1" t="s">
         <v>1821</v>
       </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N335" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14">
       <c r="A336">
         <v>44180</v>
       </c>
@@ -22204,8 +23225,11 @@
       <c r="M336" s="1" t="s">
         <v>1826</v>
       </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N336" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14">
       <c r="A337">
         <v>44220</v>
       </c>
@@ -22245,8 +23269,11 @@
       <c r="M337" s="1" t="s">
         <v>1828</v>
       </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N337" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14">
       <c r="A338">
         <v>44300</v>
       </c>
@@ -22286,8 +23313,11 @@
       <c r="M338" s="1" t="s">
         <v>1833</v>
       </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N338" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14">
       <c r="A339">
         <v>44420</v>
       </c>
@@ -22327,8 +23357,11 @@
       <c r="M339" s="1" t="s">
         <v>1838</v>
       </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N339" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14">
       <c r="A340">
         <v>44700</v>
       </c>
@@ -22368,8 +23401,11 @@
       <c r="M340" s="1" t="s">
         <v>1843</v>
       </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N340" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14">
       <c r="A341">
         <v>44940</v>
       </c>
@@ -22409,8 +23445,11 @@
       <c r="M341" s="1" t="s">
         <v>1848</v>
       </c>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N341" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14">
       <c r="A342">
         <v>45060</v>
       </c>
@@ -22450,8 +23489,11 @@
       <c r="M342" s="1" t="s">
         <v>1854</v>
       </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N342" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14">
       <c r="A343">
         <v>45220</v>
       </c>
@@ -22491,8 +23533,11 @@
       <c r="M343" s="1" t="s">
         <v>1860</v>
       </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N343" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14">
       <c r="A344">
         <v>45300</v>
       </c>
@@ -22532,8 +23577,11 @@
       <c r="M344" s="1" t="s">
         <v>1865</v>
       </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N344" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14">
       <c r="A345">
         <v>45460</v>
       </c>
@@ -22573,8 +23621,11 @@
       <c r="M345" s="1" t="s">
         <v>1871</v>
       </c>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N345" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14">
       <c r="A346">
         <v>45500</v>
       </c>
@@ -22614,8 +23665,11 @@
       <c r="M346" s="1" t="s">
         <v>1877</v>
       </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N346" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14">
       <c r="A347">
         <v>45540</v>
       </c>
@@ -22655,8 +23709,11 @@
       <c r="M347" s="1" t="s">
         <v>1881</v>
       </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N347" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14">
       <c r="A348">
         <v>45780</v>
       </c>
@@ -22696,8 +23753,11 @@
       <c r="M348" s="1" t="s">
         <v>1887</v>
       </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N348" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14">
       <c r="A349">
         <v>45820</v>
       </c>
@@ -22737,8 +23797,11 @@
       <c r="M349" s="1" t="s">
         <v>1893</v>
       </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N349" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14">
       <c r="A350">
         <v>45940</v>
       </c>
@@ -22778,8 +23841,11 @@
       <c r="M350" s="1" t="s">
         <v>1898</v>
       </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N350" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14">
       <c r="A351">
         <v>46060</v>
       </c>
@@ -22819,8 +23885,11 @@
       <c r="M351" s="1" t="s">
         <v>1903</v>
       </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N351" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14">
       <c r="A352">
         <v>46140</v>
       </c>
@@ -22860,8 +23929,11 @@
       <c r="M352" s="1" t="s">
         <v>1908</v>
       </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N352" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14">
       <c r="A353">
         <v>46220</v>
       </c>
@@ -22901,8 +23973,11 @@
       <c r="M353" s="1" t="s">
         <v>1913</v>
       </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N353" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14">
       <c r="A354">
         <v>46300</v>
       </c>
@@ -22942,8 +24017,11 @@
       <c r="M354" s="1" t="s">
         <v>1918</v>
       </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N354" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14">
       <c r="A355">
         <v>46340</v>
       </c>
@@ -22983,8 +24061,11 @@
       <c r="M355" s="1" t="s">
         <v>1923</v>
       </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N355" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14">
       <c r="A356">
         <v>46520</v>
       </c>
@@ -23024,8 +24105,11 @@
       <c r="M356" s="1" t="s">
         <v>1927</v>
       </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N356" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14">
       <c r="A357">
         <v>46540</v>
       </c>
@@ -23065,8 +24149,11 @@
       <c r="M357" s="1" t="s">
         <v>1933</v>
       </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N357" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14">
       <c r="A358">
         <v>46660</v>
       </c>
@@ -23106,8 +24193,11 @@
       <c r="M358" s="1" t="s">
         <v>1939</v>
       </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N358" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14">
       <c r="A359">
         <v>46700</v>
       </c>
@@ -23147,8 +24237,11 @@
       <c r="M359" s="1" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N359" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14">
       <c r="A360">
         <v>47020</v>
       </c>
@@ -23188,8 +24281,11 @@
       <c r="M360" s="1" t="s">
         <v>1949</v>
       </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N360" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14">
       <c r="A361">
         <v>47220</v>
       </c>
@@ -23229,8 +24325,11 @@
       <c r="M361" s="1" t="s">
         <v>1953</v>
       </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N361" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14">
       <c r="A362">
         <v>47260</v>
       </c>
@@ -23270,8 +24369,11 @@
       <c r="M362" s="1" t="s">
         <v>1958</v>
       </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N362" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14">
       <c r="A363">
         <v>47300</v>
       </c>
@@ -23311,8 +24413,11 @@
       <c r="M363" s="1" t="s">
         <v>1963</v>
       </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N363" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14">
       <c r="A364">
         <v>47380</v>
       </c>
@@ -23352,8 +24457,11 @@
       <c r="M364" s="1" t="s">
         <v>1969</v>
       </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N364" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14">
       <c r="A365">
         <v>47460</v>
       </c>
@@ -23393,8 +24501,11 @@
       <c r="M365" s="1">
         <v>99362</v>
       </c>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N365" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14">
       <c r="A366">
         <v>47580</v>
       </c>
@@ -23434,8 +24545,11 @@
       <c r="M366" s="1" t="s">
         <v>1977</v>
       </c>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N366" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14">
       <c r="A367">
         <v>47900</v>
       </c>
@@ -23475,8 +24589,11 @@
       <c r="M367" s="1" t="s">
         <v>1983</v>
       </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N367" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14">
       <c r="A368">
         <v>47940</v>
       </c>
@@ -23516,8 +24633,11 @@
       <c r="M368" s="1" t="s">
         <v>1989</v>
       </c>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N368" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14">
       <c r="A369">
         <v>48060</v>
       </c>
@@ -23557,8 +24677,11 @@
       <c r="M369" s="1" t="s">
         <v>1993</v>
       </c>
-    </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N369" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14">
       <c r="A370">
         <v>48140</v>
       </c>
@@ -23598,8 +24721,11 @@
       <c r="M370" s="1" t="s">
         <v>1999</v>
       </c>
-    </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N370" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14">
       <c r="A371">
         <v>48260</v>
       </c>
@@ -23639,8 +24765,11 @@
       <c r="M371" s="1" t="s">
         <v>2005</v>
       </c>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N371" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14">
       <c r="A372">
         <v>48300</v>
       </c>
@@ -23680,8 +24809,11 @@
       <c r="M372" s="1">
         <v>98801</v>
       </c>
-    </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N372" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14">
       <c r="A373">
         <v>48540</v>
       </c>
@@ -23721,8 +24853,11 @@
       <c r="M373" s="1">
         <v>26003</v>
       </c>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N373" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14">
       <c r="A374">
         <v>48620</v>
       </c>
@@ -23762,8 +24897,11 @@
       <c r="M374" s="1" t="s">
         <v>2020</v>
       </c>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N374" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14">
       <c r="A375">
         <v>48660</v>
       </c>
@@ -23803,8 +24941,11 @@
       <c r="M375" s="1" t="s">
         <v>2025</v>
       </c>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N375" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14">
       <c r="A376">
         <v>48700</v>
       </c>
@@ -23844,8 +24985,11 @@
       <c r="M376" s="1" t="s">
         <v>2030</v>
       </c>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N376" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14">
       <c r="A377">
         <v>48900</v>
       </c>
@@ -23885,8 +25029,11 @@
       <c r="M377" s="1" t="s">
         <v>2036</v>
       </c>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N377" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14">
       <c r="A378">
         <v>49020</v>
       </c>
@@ -23926,8 +25073,11 @@
       <c r="M378" s="1" t="s">
         <v>2041</v>
       </c>
-    </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N378" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14">
       <c r="A379">
         <v>49180</v>
       </c>
@@ -23967,8 +25117,11 @@
       <c r="M379" s="1" t="s">
         <v>2047</v>
       </c>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N379" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14">
       <c r="A380">
         <v>49340</v>
       </c>
@@ -24008,8 +25161,11 @@
       <c r="M380" s="1" t="s">
         <v>2052</v>
       </c>
-    </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N380" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14">
       <c r="A381">
         <v>49420</v>
       </c>
@@ -24049,8 +25205,11 @@
       <c r="M381" s="1" t="s">
         <v>2056</v>
       </c>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N381" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14">
       <c r="A382">
         <v>49620</v>
       </c>
@@ -24090,8 +25249,11 @@
       <c r="M382" s="1" t="s">
         <v>2060</v>
       </c>
-    </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N382" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14">
       <c r="A383">
         <v>49660</v>
       </c>
@@ -24131,8 +25293,11 @@
       <c r="M383" s="1" t="s">
         <v>2066</v>
       </c>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N383" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14">
       <c r="A384">
         <v>49700</v>
       </c>
@@ -24172,8 +25337,11 @@
       <c r="M384" s="1" t="s">
         <v>2072</v>
       </c>
-    </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N384" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14">
       <c r="A385">
         <v>49740</v>
       </c>
@@ -24212,6 +25380,9 @@
       </c>
       <c r="M385" s="1" t="s">
         <v>2076</v>
+      </c>
+      <c r="N385" t="s">
+        <v>2513</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Data/master_list.xlsx
+++ b/Resources/Data/master_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thepauls/Desktop/code/Module_20/FinalProject_BusinessFormation/Resources/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51aaa36d9ab95471/Desktop/Analysis Projects/FinalProject_BusinessFormation/Resources/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5550823-9544-E64D-B385-3B24128C8D2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{B5550823-9544-E64D-B385-3B24128C8D2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{46D3A130-9D73-4541-99FA-D421A3B90159}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="4800" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master_list" sheetId="1" r:id="rId1"/>
@@ -7597,7 +7597,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8434,18 +8434,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8489,7 +8494,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10180</v>
       </c>
@@ -8533,7 +8538,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10420</v>
       </c>
@@ -8577,7 +8582,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10500</v>
       </c>
@@ -8621,7 +8626,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10540</v>
       </c>
@@ -8665,7 +8670,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10580</v>
       </c>
@@ -8709,7 +8714,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10740</v>
       </c>
@@ -8753,7 +8758,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10780</v>
       </c>
@@ -8797,7 +8802,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10900</v>
       </c>
@@ -8841,7 +8846,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11020</v>
       </c>
@@ -8885,7 +8890,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11100</v>
       </c>
@@ -8929,7 +8934,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11180</v>
       </c>
@@ -8973,7 +8978,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11260</v>
       </c>
@@ -9017,7 +9022,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11460</v>
       </c>
@@ -9061,7 +9066,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11500</v>
       </c>
@@ -9105,7 +9110,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11540</v>
       </c>
@@ -9149,7 +9154,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11700</v>
       </c>
@@ -9193,7 +9198,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12020</v>
       </c>
@@ -9237,7 +9242,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12060</v>
       </c>
@@ -9281,7 +9286,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12100</v>
       </c>
@@ -9325,7 +9330,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12220</v>
       </c>
@@ -9369,7 +9374,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12260</v>
       </c>
@@ -9413,7 +9418,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>12420</v>
       </c>
@@ -9457,7 +9462,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12540</v>
       </c>
@@ -9501,7 +9506,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12580</v>
       </c>
@@ -9545,7 +9550,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12620</v>
       </c>
@@ -9589,7 +9594,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12700</v>
       </c>
@@ -9633,7 +9638,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>12940</v>
       </c>
@@ -9677,7 +9682,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>12980</v>
       </c>
@@ -9721,7 +9726,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>13020</v>
       </c>
@@ -9765,7 +9770,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>13140</v>
       </c>
@@ -9809,7 +9814,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>13220</v>
       </c>
@@ -9853,7 +9858,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>13380</v>
       </c>
@@ -9897,7 +9902,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>13460</v>
       </c>
@@ -9941,7 +9946,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>13740</v>
       </c>
@@ -9985,7 +9990,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>13780</v>
       </c>
@@ -10029,7 +10034,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>13820</v>
       </c>
@@ -10073,7 +10078,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>13900</v>
       </c>
@@ -10117,7 +10122,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>13980</v>
       </c>
@@ -10161,7 +10166,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>14010</v>
       </c>
@@ -10205,7 +10210,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>14020</v>
       </c>
@@ -10249,7 +10254,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>14100</v>
       </c>
@@ -10293,7 +10298,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>14260</v>
       </c>
@@ -10337,7 +10342,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>14460</v>
       </c>
@@ -10381,7 +10386,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>14500</v>
       </c>
@@ -10425,7 +10430,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>14540</v>
       </c>
@@ -10469,7 +10474,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>14740</v>
       </c>
@@ -10513,7 +10518,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>14860</v>
       </c>
@@ -10557,7 +10562,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>15180</v>
       </c>
@@ -10601,7 +10606,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>15260</v>
       </c>
@@ -10645,7 +10650,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>15380</v>
       </c>
@@ -10689,7 +10694,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>15500</v>
       </c>
@@ -10733,7 +10738,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>15540</v>
       </c>
@@ -10777,7 +10782,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>15680</v>
       </c>
@@ -10821,7 +10826,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>15940</v>
       </c>
@@ -10865,7 +10870,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>15980</v>
       </c>
@@ -10909,7 +10914,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>16020</v>
       </c>
@@ -10953,7 +10958,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>16060</v>
       </c>
@@ -10997,7 +11002,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>16180</v>
       </c>
@@ -11041,7 +11046,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>16220</v>
       </c>
@@ -11085,7 +11090,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>16300</v>
       </c>
@@ -11129,7 +11134,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>16540</v>
       </c>
@@ -11173,7 +11178,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>16580</v>
       </c>
@@ -11217,7 +11222,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>16620</v>
       </c>
@@ -11261,7 +11266,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>16700</v>
       </c>
@@ -11305,7 +11310,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>16740</v>
       </c>
@@ -11349,7 +11354,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>16820</v>
       </c>
@@ -11393,7 +11398,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>16860</v>
       </c>
@@ -11437,7 +11442,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>16940</v>
       </c>
@@ -11481,7 +11486,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>16980</v>
       </c>
@@ -11525,7 +11530,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>17020</v>
       </c>
@@ -11569,7 +11574,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>17140</v>
       </c>
@@ -11613,7 +11618,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>17300</v>
       </c>
@@ -11657,7 +11662,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>17420</v>
       </c>
@@ -11701,7 +11706,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>17460</v>
       </c>
@@ -11745,7 +11750,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>17660</v>
       </c>
@@ -11789,7 +11794,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>17780</v>
       </c>
@@ -11833,7 +11838,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>17820</v>
       </c>
@@ -11877,7 +11882,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>17860</v>
       </c>
@@ -11921,7 +11926,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>17900</v>
       </c>
@@ -11965,7 +11970,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>17980</v>
       </c>
@@ -12009,7 +12014,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>18020</v>
       </c>
@@ -12053,7 +12058,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>18140</v>
       </c>
@@ -12097,7 +12102,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>18580</v>
       </c>
@@ -12141,7 +12146,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>18700</v>
       </c>
@@ -12185,7 +12190,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>18880</v>
       </c>
@@ -12229,7 +12234,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>19060</v>
       </c>
@@ -12273,7 +12278,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>19100</v>
       </c>
@@ -12317,7 +12322,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>19140</v>
       </c>
@@ -12361,7 +12366,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>19180</v>
       </c>
@@ -12405,7 +12410,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>19300</v>
       </c>
@@ -12449,7 +12454,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>19340</v>
       </c>
@@ -12493,7 +12498,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>19430</v>
       </c>
@@ -12537,7 +12542,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>19460</v>
       </c>
@@ -12581,7 +12586,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>19500</v>
       </c>
@@ -12625,7 +12630,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>19660</v>
       </c>
@@ -12669,7 +12674,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>19740</v>
       </c>
@@ -12713,7 +12718,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>19780</v>
       </c>
@@ -12757,7 +12762,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>19820</v>
       </c>
@@ -12801,7 +12806,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>20020</v>
       </c>
@@ -12845,7 +12850,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>20100</v>
       </c>
@@ -12889,7 +12894,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>20220</v>
       </c>
@@ -12933,7 +12938,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>20260</v>
       </c>
@@ -12977,7 +12982,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20500</v>
       </c>
@@ -13021,7 +13026,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>20700</v>
       </c>
@@ -13065,7 +13070,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>20740</v>
       </c>
@@ -13109,7 +13114,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>20940</v>
       </c>
@@ -13153,7 +13158,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>21060</v>
       </c>
@@ -13197,7 +13202,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>21140</v>
       </c>
@@ -13241,7 +13246,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>21300</v>
       </c>
@@ -13285,7 +13290,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>21340</v>
       </c>
@@ -13329,7 +13334,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>21420</v>
       </c>
@@ -13373,7 +13378,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>21500</v>
       </c>
@@ -13417,7 +13422,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>21660</v>
       </c>
@@ -13461,7 +13466,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>21780</v>
       </c>
@@ -13505,7 +13510,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>21820</v>
       </c>
@@ -13549,7 +13554,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>22020</v>
       </c>
@@ -13593,7 +13598,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>22140</v>
       </c>
@@ -13637,7 +13642,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>22180</v>
       </c>
@@ -13681,7 +13686,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>22220</v>
       </c>
@@ -13725,7 +13730,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>22380</v>
       </c>
@@ -13769,7 +13774,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>22420</v>
       </c>
@@ -13813,7 +13818,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>22500</v>
       </c>
@@ -13857,7 +13862,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>22520</v>
       </c>
@@ -13901,7 +13906,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>22540</v>
       </c>
@@ -13945,7 +13950,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>22660</v>
       </c>
@@ -13989,7 +13994,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>22900</v>
       </c>
@@ -14033,7 +14038,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>23060</v>
       </c>
@@ -14077,7 +14082,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>23420</v>
       </c>
@@ -14121,7 +14126,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>23460</v>
       </c>
@@ -14165,7 +14170,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>23540</v>
       </c>
@@ -14209,7 +14214,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>23580</v>
       </c>
@@ -14253,7 +14258,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>23900</v>
       </c>
@@ -14297,7 +14302,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>24020</v>
       </c>
@@ -14341,7 +14346,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>24140</v>
       </c>
@@ -14385,7 +14390,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>24220</v>
       </c>
@@ -14429,7 +14434,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>24260</v>
       </c>
@@ -14473,7 +14478,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>24300</v>
       </c>
@@ -14517,7 +14522,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>24340</v>
       </c>
@@ -14561,7 +14566,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>24420</v>
       </c>
@@ -14605,7 +14610,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>24500</v>
       </c>
@@ -14649,7 +14654,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>24540</v>
       </c>
@@ -14693,7 +14698,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>24580</v>
       </c>
@@ -14737,7 +14742,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>24660</v>
       </c>
@@ -14781,7 +14786,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>24780</v>
       </c>
@@ -14825,7 +14830,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>24860</v>
       </c>
@@ -14869,7 +14874,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>25060</v>
       </c>
@@ -14913,7 +14918,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>25180</v>
       </c>
@@ -14957,7 +14962,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>25220</v>
       </c>
@@ -15001,7 +15006,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>25260</v>
       </c>
@@ -15045,7 +15050,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>25420</v>
       </c>
@@ -15089,7 +15094,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>25500</v>
       </c>
@@ -15133,7 +15138,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>25540</v>
       </c>
@@ -15177,7 +15182,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>25620</v>
       </c>
@@ -15221,7 +15226,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>25860</v>
       </c>
@@ -15265,7 +15270,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>25940</v>
       </c>
@@ -15309,7 +15314,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>25980</v>
       </c>
@@ -15353,7 +15358,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>26140</v>
       </c>
@@ -15397,7 +15402,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>26300</v>
       </c>
@@ -15441,7 +15446,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>26380</v>
       </c>
@@ -15485,7 +15490,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>26420</v>
       </c>
@@ -15529,7 +15534,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>26580</v>
       </c>
@@ -15573,7 +15578,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>26620</v>
       </c>
@@ -15617,7 +15622,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>26820</v>
       </c>
@@ -15661,7 +15666,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>26900</v>
       </c>
@@ -15705,7 +15710,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>26980</v>
       </c>
@@ -15749,7 +15754,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>27060</v>
       </c>
@@ -15793,7 +15798,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>27100</v>
       </c>
@@ -15837,7 +15842,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>27140</v>
       </c>
@@ -15881,7 +15886,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>27180</v>
       </c>
@@ -15925,7 +15930,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>27260</v>
       </c>
@@ -15969,7 +15974,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>27340</v>
       </c>
@@ -16013,7 +16018,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>27500</v>
       </c>
@@ -16057,7 +16062,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>27620</v>
       </c>
@@ -16101,7 +16106,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>27740</v>
       </c>
@@ -16145,7 +16150,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>27780</v>
       </c>
@@ -16189,7 +16194,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>27860</v>
       </c>
@@ -16233,7 +16238,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>27900</v>
       </c>
@@ -16277,7 +16282,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>27980</v>
       </c>
@@ -16321,7 +16326,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>28020</v>
       </c>
@@ -16365,7 +16370,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>28100</v>
       </c>
@@ -16409,7 +16414,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>28140</v>
       </c>
@@ -16453,7 +16458,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>28420</v>
       </c>
@@ -16497,7 +16502,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>28660</v>
       </c>
@@ -16541,7 +16546,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>28700</v>
       </c>
@@ -16585,7 +16590,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>28740</v>
       </c>
@@ -16629,7 +16634,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>28940</v>
       </c>
@@ -16673,7 +16678,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>29020</v>
       </c>
@@ -16717,7 +16722,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>29100</v>
       </c>
@@ -16761,7 +16766,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>29180</v>
       </c>
@@ -16805,7 +16810,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>29200</v>
       </c>
@@ -16849,7 +16854,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>29340</v>
       </c>
@@ -16893,7 +16898,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>29420</v>
       </c>
@@ -16937,7 +16942,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>29460</v>
       </c>
@@ -16981,7 +16986,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>29540</v>
       </c>
@@ -17025,7 +17030,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>29620</v>
       </c>
@@ -17069,7 +17074,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>29700</v>
       </c>
@@ -17113,7 +17118,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>29740</v>
       </c>
@@ -17157,7 +17162,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>29820</v>
       </c>
@@ -17201,7 +17206,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>29940</v>
       </c>
@@ -17245,7 +17250,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>30020</v>
       </c>
@@ -17289,7 +17294,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>30140</v>
       </c>
@@ -17333,7 +17338,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>30300</v>
       </c>
@@ -17377,7 +17382,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>30340</v>
       </c>
@@ -17421,7 +17426,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>30460</v>
       </c>
@@ -17465,7 +17470,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>30620</v>
       </c>
@@ -17509,7 +17514,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>30700</v>
       </c>
@@ -17553,7 +17558,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>30780</v>
       </c>
@@ -17597,7 +17602,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>30860</v>
       </c>
@@ -17641,7 +17646,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>30980</v>
       </c>
@@ -17685,7 +17690,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>31020</v>
       </c>
@@ -17729,7 +17734,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>31080</v>
       </c>
@@ -17773,7 +17778,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>31140</v>
       </c>
@@ -17817,7 +17822,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>31180</v>
       </c>
@@ -17861,7 +17866,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>31340</v>
       </c>
@@ -17905,7 +17910,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>31420</v>
       </c>
@@ -17949,7 +17954,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>31460</v>
       </c>
@@ -17993,7 +17998,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>31540</v>
       </c>
@@ -18037,7 +18042,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>31700</v>
       </c>
@@ -18081,7 +18086,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>31740</v>
       </c>
@@ -18125,7 +18130,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>31860</v>
       </c>
@@ -18169,7 +18174,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>31900</v>
       </c>
@@ -18213,7 +18218,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>32580</v>
       </c>
@@ -18257,7 +18262,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>32780</v>
       </c>
@@ -18301,7 +18306,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>32820</v>
       </c>
@@ -18345,7 +18350,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>32900</v>
       </c>
@@ -18389,7 +18394,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>33100</v>
       </c>
@@ -18433,7 +18438,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>33140</v>
       </c>
@@ -18477,7 +18482,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>33220</v>
       </c>
@@ -18521,7 +18526,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>33260</v>
       </c>
@@ -18565,7 +18570,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>33340</v>
       </c>
@@ -18609,7 +18614,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>33460</v>
       </c>
@@ -18653,7 +18658,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>33540</v>
       </c>
@@ -18697,7 +18702,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>33660</v>
       </c>
@@ -18741,7 +18746,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>33700</v>
       </c>
@@ -18785,7 +18790,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>33740</v>
       </c>
@@ -18829,7 +18834,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>33780</v>
       </c>
@@ -18873,7 +18878,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>33860</v>
       </c>
@@ -18917,7 +18922,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>34060</v>
       </c>
@@ -18961,7 +18966,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>34100</v>
       </c>
@@ -19005,7 +19010,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>34580</v>
       </c>
@@ -19049,7 +19054,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>34620</v>
       </c>
@@ -19093,7 +19098,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>34740</v>
       </c>
@@ -19137,7 +19142,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>34820</v>
       </c>
@@ -19181,7 +19186,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>34900</v>
       </c>
@@ -19225,7 +19230,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>34940</v>
       </c>
@@ -19269,7 +19274,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>34980</v>
       </c>
@@ -19313,7 +19318,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>35100</v>
       </c>
@@ -19357,7 +19362,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>35300</v>
       </c>
@@ -19401,7 +19406,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="250" spans="1:14">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>35380</v>
       </c>
@@ -19445,7 +19450,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>35620</v>
       </c>
@@ -19489,7 +19494,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>35660</v>
       </c>
@@ -19533,7 +19538,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>35840</v>
       </c>
@@ -19577,7 +19582,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="254" spans="1:14">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>35980</v>
       </c>
@@ -19621,7 +19626,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>36100</v>
       </c>
@@ -19665,7 +19670,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="256" spans="1:14">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>36140</v>
       </c>
@@ -19709,7 +19714,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>36220</v>
       </c>
@@ -19753,7 +19758,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>36260</v>
       </c>
@@ -19797,7 +19802,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>36420</v>
       </c>
@@ -19841,7 +19846,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>36500</v>
       </c>
@@ -19885,7 +19890,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>36540</v>
       </c>
@@ -19929,7 +19934,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>36740</v>
       </c>
@@ -19973,7 +19978,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>36780</v>
       </c>
@@ -20017,7 +20022,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>36980</v>
       </c>
@@ -20061,7 +20066,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>37100</v>
       </c>
@@ -20105,7 +20110,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>37340</v>
       </c>
@@ -20149,7 +20154,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>37460</v>
       </c>
@@ -20193,7 +20198,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="268" spans="1:14">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>37620</v>
       </c>
@@ -20237,7 +20242,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>37860</v>
       </c>
@@ -20281,7 +20286,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>37900</v>
       </c>
@@ -20325,7 +20330,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>37980</v>
       </c>
@@ -20369,7 +20374,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="272" spans="1:14">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>38060</v>
       </c>
@@ -20413,7 +20418,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="273" spans="1:14">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>38220</v>
       </c>
@@ -20457,7 +20462,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="274" spans="1:14">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>38300</v>
       </c>
@@ -20501,7 +20506,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="275" spans="1:14">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>38340</v>
       </c>
@@ -20545,7 +20550,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="276" spans="1:14">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>38540</v>
       </c>
@@ -20589,7 +20594,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="277" spans="1:14">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>38860</v>
       </c>
@@ -20633,7 +20638,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="278" spans="1:14">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>38900</v>
       </c>
@@ -20677,7 +20682,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="279" spans="1:14">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>38940</v>
       </c>
@@ -20721,7 +20726,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="280" spans="1:14">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>39100</v>
       </c>
@@ -20765,7 +20770,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>39150</v>
       </c>
@@ -20809,7 +20814,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="282" spans="1:14">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>39300</v>
       </c>
@@ -20853,7 +20858,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="283" spans="1:14">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>39340</v>
       </c>
@@ -20897,7 +20902,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="284" spans="1:14">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>39380</v>
       </c>
@@ -20941,7 +20946,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="285" spans="1:14">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>39460</v>
       </c>
@@ -20985,7 +20990,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="286" spans="1:14">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>39540</v>
       </c>
@@ -21029,7 +21034,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="287" spans="1:14">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>39580</v>
       </c>
@@ -21073,7 +21078,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="288" spans="1:14">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>39660</v>
       </c>
@@ -21117,7 +21122,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="289" spans="1:14">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>39740</v>
       </c>
@@ -21161,7 +21166,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="290" spans="1:14">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>39820</v>
       </c>
@@ -21205,7 +21210,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>39900</v>
       </c>
@@ -21249,7 +21254,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>40060</v>
       </c>
@@ -21293,7 +21298,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>40140</v>
       </c>
@@ -21337,7 +21342,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>40220</v>
       </c>
@@ -21381,7 +21386,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>40340</v>
       </c>
@@ -21425,7 +21430,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="296" spans="1:14">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>40380</v>
       </c>
@@ -21469,7 +21474,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>40420</v>
       </c>
@@ -21513,7 +21518,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="298" spans="1:14">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>40580</v>
       </c>
@@ -21557,7 +21562,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>40660</v>
       </c>
@@ -21601,7 +21606,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>40900</v>
       </c>
@@ -21645,7 +21650,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>40980</v>
       </c>
@@ -21689,7 +21694,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="302" spans="1:14">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>41060</v>
       </c>
@@ -21733,7 +21738,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="303" spans="1:14">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>41100</v>
       </c>
@@ -21777,7 +21782,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="304" spans="1:14">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>41140</v>
       </c>
@@ -21821,7 +21826,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="305" spans="1:14">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>41180</v>
       </c>
@@ -21865,7 +21870,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="306" spans="1:14">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>41420</v>
       </c>
@@ -21909,7 +21914,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="307" spans="1:14">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>41500</v>
       </c>
@@ -21953,7 +21958,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="308" spans="1:14">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>41540</v>
       </c>
@@ -21997,7 +22002,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="309" spans="1:14">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>41620</v>
       </c>
@@ -22041,7 +22046,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="310" spans="1:14">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>41660</v>
       </c>
@@ -22085,7 +22090,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="311" spans="1:14">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>41700</v>
       </c>
@@ -22129,7 +22134,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="312" spans="1:14">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>41740</v>
       </c>
@@ -22173,7 +22178,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="313" spans="1:14">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>41860</v>
       </c>
@@ -22217,7 +22222,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="314" spans="1:14">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>41940</v>
       </c>
@@ -22261,7 +22266,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="315" spans="1:14">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>42020</v>
       </c>
@@ -22305,7 +22310,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="316" spans="1:14">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>42100</v>
       </c>
@@ -22349,7 +22354,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="317" spans="1:14">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>42140</v>
       </c>
@@ -22393,7 +22398,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="318" spans="1:14">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>42200</v>
       </c>
@@ -22437,7 +22442,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="319" spans="1:14">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>42220</v>
       </c>
@@ -22481,7 +22486,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="320" spans="1:14">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>42340</v>
       </c>
@@ -22525,7 +22530,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="321" spans="1:14">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>42540</v>
       </c>
@@ -22569,7 +22574,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="322" spans="1:14">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>42660</v>
       </c>
@@ -22613,7 +22618,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="323" spans="1:14">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>42680</v>
       </c>
@@ -22657,7 +22662,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="324" spans="1:14">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>42700</v>
       </c>
@@ -22701,7 +22706,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="325" spans="1:14">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>43100</v>
       </c>
@@ -22745,7 +22750,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="326" spans="1:14">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>43300</v>
       </c>
@@ -22789,7 +22794,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="327" spans="1:14">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>43340</v>
       </c>
@@ -22833,7 +22838,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="328" spans="1:14">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>43420</v>
       </c>
@@ -22877,7 +22882,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="329" spans="1:14">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>43580</v>
       </c>
@@ -22921,7 +22926,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="330" spans="1:14">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>43620</v>
       </c>
@@ -22965,7 +22970,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="331" spans="1:14">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>43780</v>
       </c>
@@ -23009,7 +23014,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="332" spans="1:14">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>43900</v>
       </c>
@@ -23053,7 +23058,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="333" spans="1:14">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>44060</v>
       </c>
@@ -23097,7 +23102,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="334" spans="1:14">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>44100</v>
       </c>
@@ -23141,7 +23146,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="335" spans="1:14">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>44140</v>
       </c>
@@ -23185,7 +23190,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="336" spans="1:14">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>44180</v>
       </c>
@@ -23229,7 +23234,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="337" spans="1:14">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>44220</v>
       </c>
@@ -23273,7 +23278,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="338" spans="1:14">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>44300</v>
       </c>
@@ -23317,7 +23322,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="339" spans="1:14">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>44420</v>
       </c>
@@ -23361,7 +23366,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="340" spans="1:14">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>44700</v>
       </c>
@@ -23405,7 +23410,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="341" spans="1:14">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>44940</v>
       </c>
@@ -23449,7 +23454,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="342" spans="1:14">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>45060</v>
       </c>
@@ -23493,7 +23498,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="343" spans="1:14">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>45220</v>
       </c>
@@ -23537,7 +23542,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="344" spans="1:14">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>45300</v>
       </c>
@@ -23581,7 +23586,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="345" spans="1:14">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>45460</v>
       </c>
@@ -23625,7 +23630,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="346" spans="1:14">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>45500</v>
       </c>
@@ -23669,7 +23674,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="347" spans="1:14">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>45540</v>
       </c>
@@ -23713,7 +23718,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="348" spans="1:14">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>45780</v>
       </c>
@@ -23757,7 +23762,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="349" spans="1:14">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>45820</v>
       </c>
@@ -23801,7 +23806,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="350" spans="1:14">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>45940</v>
       </c>
@@ -23845,7 +23850,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="351" spans="1:14">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>46060</v>
       </c>
@@ -23889,7 +23894,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="352" spans="1:14">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>46140</v>
       </c>
@@ -23933,7 +23938,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="353" spans="1:14">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>46220</v>
       </c>
@@ -23977,7 +23982,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="354" spans="1:14">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>46300</v>
       </c>
@@ -24021,7 +24026,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="355" spans="1:14">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>46340</v>
       </c>
@@ -24065,7 +24070,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="356" spans="1:14">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>46520</v>
       </c>
@@ -24109,7 +24114,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="357" spans="1:14">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>46540</v>
       </c>
@@ -24153,7 +24158,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="358" spans="1:14">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>46660</v>
       </c>
@@ -24197,7 +24202,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="359" spans="1:14">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>46700</v>
       </c>
@@ -24241,7 +24246,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="360" spans="1:14">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>47020</v>
       </c>
@@ -24285,7 +24290,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="361" spans="1:14">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>47220</v>
       </c>
@@ -24329,7 +24334,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="362" spans="1:14">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>47260</v>
       </c>
@@ -24373,7 +24378,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="363" spans="1:14">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>47300</v>
       </c>
@@ -24417,7 +24422,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="364" spans="1:14">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>47380</v>
       </c>
@@ -24461,7 +24466,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="365" spans="1:14">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>47460</v>
       </c>
@@ -24505,7 +24510,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="366" spans="1:14">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>47580</v>
       </c>
@@ -24549,7 +24554,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="367" spans="1:14">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>47900</v>
       </c>
@@ -24593,7 +24598,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="368" spans="1:14">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>47940</v>
       </c>
@@ -24637,7 +24642,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="369" spans="1:14">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>48060</v>
       </c>
@@ -24681,7 +24686,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="370" spans="1:14">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>48140</v>
       </c>
@@ -24725,7 +24730,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="371" spans="1:14">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>48260</v>
       </c>
@@ -24769,7 +24774,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="372" spans="1:14">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>48300</v>
       </c>
@@ -24813,7 +24818,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="373" spans="1:14">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>48540</v>
       </c>
@@ -24857,7 +24862,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="374" spans="1:14">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>48620</v>
       </c>
@@ -24901,7 +24906,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="375" spans="1:14">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>48660</v>
       </c>
@@ -24945,7 +24950,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="376" spans="1:14">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>48700</v>
       </c>
@@ -24989,7 +24994,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="377" spans="1:14">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>48900</v>
       </c>
@@ -25033,7 +25038,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="378" spans="1:14">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>49020</v>
       </c>
@@ -25077,7 +25082,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="379" spans="1:14">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>49180</v>
       </c>
@@ -25121,7 +25126,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="380" spans="1:14">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>49340</v>
       </c>
@@ -25165,7 +25170,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="381" spans="1:14">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>49420</v>
       </c>
@@ -25209,7 +25214,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="382" spans="1:14">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>49620</v>
       </c>
@@ -25253,7 +25258,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="383" spans="1:14">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>49660</v>
       </c>
@@ -25297,7 +25302,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="384" spans="1:14">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>49700</v>
       </c>
@@ -25341,7 +25346,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="385" spans="1:14">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>49740</v>
       </c>
